--- a/updated_script/Graphtext_032119.xlsx
+++ b/updated_script/Graphtext_032119.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C823451-4BA0-A340-B5A4-C410AA507FA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBB15F2-29CA-8D45-8597-60AAC390AB6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="880" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="1160" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="649">
   <si>
     <t>section</t>
   </si>
@@ -686,9 +686,6 @@
     <t>030502.csv</t>
   </si>
   <si>
-    <t>grouped stacked bar</t>
-  </si>
-  <si>
     <t xml:space="preserve">National Postsecondary Student Aid Study (NPSAS), 2016. </t>
   </si>
   <si>
@@ -723,9 +720,6 @@
   </si>
   <si>
     <t>For-profit</t>
-  </si>
-  <si>
-    <t>Total Student Budget, Divided into the Portions of Tuition and Fees and Living Expenses Covered by Grant Aid, and the Tuition and Fees and Living Expenses Remaining, from 1995–96 to 2011–12, in 2011 Dollars</t>
   </si>
   <si>
     <t>030507.csv</t>
@@ -2004,14 +1998,42 @@
   <si>
     <t>Age groups</t>
   </si>
+  <si>
+    <t>data looks different and odd…different categories than previous, no notes?</t>
+  </si>
+  <si>
+    <t>yes pending data check</t>
+  </si>
+  <si>
+    <t>wideSmallMultiple, multipleCustomLabelPosition</t>
+  </si>
+  <si>
+    <t>Check years in Title!!! Also, made wider to accommadate the new column for each, so that it doesn't wrap year in label</t>
+  </si>
+  <si>
+    <t>Data appears to have an extra column!!! Also Check years in Title!!! Also, made wider to accommadate the new column for each, so that it doesn't wrap year in label</t>
+  </si>
+  <si>
+    <t>Total Student Budget, Divided into the Portions of Tuition and Fees and Living Expenses Covered by Grant Aid, and the Tuition and Fees and Living Expenses Remaining, from 1995–96 to 2015–16, in 2015 Dollars</t>
+  </si>
+  <si>
+    <t>Check the year in the title, check note</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2172,71 +2194,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2520,9 +2544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y51" activeCellId="1" sqref="X57 Y51"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2568,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>7</v>
@@ -2698,7 +2722,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>44</v>
@@ -2776,7 +2800,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
@@ -2852,7 +2876,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>50</v>
@@ -2928,7 +2952,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>56</v>
@@ -3008,7 +3032,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -3086,7 +3110,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>50</v>
@@ -3164,7 +3188,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>50</v>
@@ -3242,7 +3266,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>50</v>
@@ -3320,7 +3344,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>50</v>
@@ -3398,7 +3422,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>50</v>
@@ -3476,7 +3500,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>50</v>
@@ -3556,7 +3580,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>50</v>
@@ -3634,7 +3658,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
@@ -3712,7 +3736,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>50</v>
@@ -3791,7 +3815,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>87</v>
@@ -3882,7 +3906,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>87</v>
@@ -3973,7 +3997,7 @@
         <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>87</v>
@@ -4064,7 +4088,7 @@
         <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>87</v>
@@ -4155,7 +4179,7 @@
         <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>87</v>
@@ -4246,7 +4270,7 @@
         <v>87</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>87</v>
@@ -4337,7 +4361,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>87</v>
@@ -4428,7 +4452,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>87</v>
@@ -4500,7 +4524,7 @@
         <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>87</v>
@@ -4571,7 +4595,7 @@
         <v>87</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>87</v>
@@ -4642,7 +4666,7 @@
         <v>87</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>87</v>
@@ -4716,7 +4740,7 @@
         <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>56</v>
@@ -4803,9 +4827,7 @@
       <c r="G28" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>634</v>
-      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="28" t="s">
         <v>56</v>
       </c>
@@ -4892,7 +4914,7 @@
         <v>117</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>44</v>
@@ -4973,7 +4995,7 @@
         <v>87</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>87</v>
@@ -5061,7 +5083,7 @@
         <v>87</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>87</v>
@@ -5152,7 +5174,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>87</v>
@@ -5243,7 +5265,7 @@
         <v>87</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
@@ -5331,7 +5353,7 @@
         <v>87</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>87</v>
@@ -5422,10 +5444,10 @@
         <v>87</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>44</v>
@@ -5503,10 +5525,10 @@
         <v>87</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>44</v>
@@ -5585,10 +5607,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>160</v>
@@ -5667,10 +5689,10 @@
         <v>87</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>56</v>
@@ -5752,13 +5774,13 @@
         <v>3</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>44</v>
@@ -5841,10 +5863,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>44</v>
@@ -5923,10 +5945,10 @@
         <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>44</v>
@@ -6005,10 +6027,10 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>50</v>
@@ -6085,10 +6107,10 @@
         <v>87</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>160</v>
@@ -6163,10 +6185,10 @@
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>44</v>
@@ -6243,10 +6265,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="37" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>44</v>
@@ -6328,7 +6350,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>56</v>
@@ -6407,10 +6429,10 @@
         <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="I47" s="30" t="s">
         <v>147</v>
@@ -6489,7 +6511,7 @@
         <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>87</v>
@@ -6502,7 +6524,7 @@
         <v>177</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M48" s="30"/>
       <c r="N48" s="30">
@@ -6578,7 +6600,7 @@
         <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>87</v>
@@ -6667,7 +6689,7 @@
         <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>87</v>
@@ -6754,7 +6776,7 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="37" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>87</v>
@@ -6845,10 +6867,10 @@
         <v>87</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>56</v>
@@ -6889,7 +6911,7 @@
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
       <c r="AE52" s="38" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AF52" s="28"/>
       <c r="AG52" s="28"/>
@@ -6929,10 +6951,10 @@
         <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>56</v>
@@ -7006,10 +7028,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>50</v>
@@ -7040,7 +7064,7 @@
       <c r="S54" s="38"/>
       <c r="T54" s="28"/>
       <c r="U54" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
@@ -7086,10 +7110,12 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>50</v>
@@ -7171,10 +7197,12 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>50</v>
@@ -7256,10 +7284,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>50</v>
@@ -7341,10 +7371,12 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>50</v>
@@ -7426,10 +7458,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>50</v>
@@ -7463,7 +7497,6 @@
       <c r="W59" s="28">
         <v>180000</v>
       </c>
-      <c r="X59" s="28"/>
       <c r="Y59" s="28"/>
       <c r="Z59" s="28">
         <v>4</v>
@@ -7511,10 +7544,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>50</v>
@@ -7548,7 +7583,6 @@
       <c r="W60" s="28">
         <v>180000</v>
       </c>
-      <c r="X60" s="28"/>
       <c r="Y60" s="28"/>
       <c r="Z60" s="28">
         <v>4</v>
@@ -7596,14 +7630,19 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>56</v>
       </c>
+      <c r="K61" s="28" t="s">
+        <v>210</v>
+      </c>
       <c r="L61" s="28" t="s">
         <v>208</v>
       </c>
@@ -7622,15 +7661,14 @@
       </c>
       <c r="R61" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S61" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="T61" s="28"/>
       <c r="U61" s="28"/>
       <c r="V61" s="28"/>
       <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
+      <c r="X61" s="28">
+        <v>16</v>
+      </c>
       <c r="Y61" s="28"/>
       <c r="Z61" s="28"/>
       <c r="AA61" s="28"/>
@@ -7639,8 +7677,12 @@
       <c r="AD61" s="28"/>
       <c r="AE61" s="28"/>
       <c r="AF61" s="28"/>
-      <c r="AG61" s="28"/>
-      <c r="AH61" s="28"/>
+      <c r="AG61" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="28">
+        <v>2</v>
+      </c>
       <c r="AI61" s="28"/>
       <c r="AJ61" s="28"/>
       <c r="AK61" s="28"/>
@@ -7670,14 +7712,19 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>56</v>
       </c>
+      <c r="K62" s="28" t="s">
+        <v>210</v>
+      </c>
       <c r="L62" s="28" t="s">
         <v>211</v>
       </c>
@@ -7696,15 +7743,14 @@
       </c>
       <c r="R62" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S62" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="T62" s="28"/>
       <c r="U62" s="28"/>
       <c r="V62" s="28"/>
       <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
+      <c r="X62" s="28">
+        <v>16</v>
+      </c>
       <c r="Y62" s="28"/>
       <c r="Z62" s="28"/>
       <c r="AA62" s="28"/>
@@ -7713,8 +7759,12 @@
       <c r="AD62" s="28"/>
       <c r="AE62" s="28"/>
       <c r="AF62" s="28"/>
-      <c r="AG62" s="28"/>
-      <c r="AH62" s="28"/>
+      <c r="AG62" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="28">
+        <v>2</v>
+      </c>
       <c r="AI62" s="28"/>
       <c r="AJ62" s="28"/>
       <c r="AK62" s="28"/>
@@ -7744,10 +7794,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>642</v>
+      </c>
       <c r="H63" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I63" s="30" t="s">
         <v>50</v>
@@ -7755,13 +7809,12 @@
       <c r="J63" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="K63" s="28"/>
       <c r="L63" s="15" t="s">
         <v>215</v>
       </c>
       <c r="M63" s="30"/>
       <c r="N63" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="30">
         <v>0</v>
@@ -7820,10 +7873,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G64" s="37" t="s">
+        <v>642</v>
+      </c>
       <c r="H64" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I64" s="30" t="s">
         <v>50</v>
@@ -7837,7 +7894,7 @@
       </c>
       <c r="M64" s="30"/>
       <c r="N64" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="30">
         <v>0</v>
@@ -7848,8 +7905,8 @@
       <c r="Q64" s="28">
         <v>1</v>
       </c>
-      <c r="R64" s="28" t="s">
-        <v>60</v>
+      <c r="R64" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="S64" s="28"/>
       <c r="T64" s="28"/>
@@ -7897,19 +7954,23 @@
         <v>3</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H65" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I65" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="J65" s="28" t="s">
+      <c r="K65" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="K65" s="28"/>
-      <c r="L65" s="15" t="s">
-        <v>221</v>
+      <c r="L65" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="M65" s="28"/>
       <c r="N65" s="30">
@@ -7919,16 +7980,13 @@
         <v>0</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q65" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S65" s="28" t="s">
-        <v>223</v>
       </c>
       <c r="T65" s="28"/>
       <c r="U65" s="28"/>
@@ -7938,12 +7996,20 @@
       </c>
       <c r="X65" s="28"/>
       <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
+      <c r="Z65" s="28">
+        <v>3</v>
+      </c>
       <c r="AA65" s="28"/>
       <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
-      <c r="AE65" s="28"/>
+      <c r="AC65" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF65" s="28"/>
       <c r="AG65" s="28"/>
       <c r="AH65" s="28"/>
@@ -7977,19 +8043,23 @@
         <v>4</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I66" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="J66" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="K66" s="28"/>
-      <c r="L66" s="15" t="s">
-        <v>224</v>
+      <c r="K66" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L66" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="M66" s="28"/>
       <c r="N66" s="30">
@@ -7999,16 +8069,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q66" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S66" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="T66" s="28"/>
       <c r="U66" s="28"/>
@@ -8018,12 +8085,20 @@
       </c>
       <c r="X66" s="28"/>
       <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
+      <c r="Z66" s="28">
+        <v>3</v>
+      </c>
       <c r="AA66" s="28"/>
       <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="28"/>
-      <c r="AE66" s="28"/>
+      <c r="AC66" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF66" s="28"/>
       <c r="AG66" s="28"/>
       <c r="AH66" s="28"/>
@@ -8057,19 +8132,23 @@
         <v>5</v>
       </c>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H67" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I67" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J67" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="J67" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="K67" s="28"/>
-      <c r="L67" s="15" t="s">
-        <v>226</v>
+      <c r="K67" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="L67" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="M67" s="28"/>
       <c r="N67" s="30">
@@ -8079,16 +8158,13 @@
         <v>0</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q67" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S67" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="T67" s="28"/>
       <c r="U67" s="28"/>
@@ -8098,12 +8174,20 @@
       </c>
       <c r="X67" s="28"/>
       <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
+      <c r="Z67" s="28">
+        <v>3</v>
+      </c>
       <c r="AA67" s="28"/>
       <c r="AB67" s="28"/>
-      <c r="AC67" s="28"/>
-      <c r="AD67" s="28"/>
-      <c r="AE67" s="28"/>
+      <c r="AC67" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF67" s="28"/>
       <c r="AG67" s="28"/>
       <c r="AH67" s="28"/>
@@ -8137,19 +8221,23 @@
         <v>6</v>
       </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H68" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I68" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="J68" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="K68" s="28"/>
-      <c r="L68" s="15" t="s">
-        <v>229</v>
+      <c r="K68" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L68" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="M68" s="28"/>
       <c r="N68" s="30">
@@ -8159,16 +8247,13 @@
         <v>0</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q68" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S68" s="28" t="s">
-        <v>231</v>
       </c>
       <c r="T68" s="28"/>
       <c r="U68" s="28"/>
@@ -8178,12 +8263,20 @@
       </c>
       <c r="X68" s="28"/>
       <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
+      <c r="Z68" s="28">
+        <v>3</v>
+      </c>
       <c r="AA68" s="28"/>
       <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
-      <c r="AE68" s="28"/>
+      <c r="AC68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="AF68" s="28"/>
       <c r="AG68" s="28"/>
       <c r="AH68" s="28"/>
@@ -8216,19 +8309,25 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H69" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J69" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K69" s="28"/>
-      <c r="L69" s="10" t="s">
+      <c r="K69" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L69" s="28" t="s">
         <v>232</v>
       </c>
       <c r="M69" s="28"/>
@@ -8239,16 +8338,13 @@
         <v>0</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q69" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S69" s="28" t="s">
-        <v>234</v>
       </c>
       <c r="T69" s="28"/>
       <c r="U69" s="28"/>
@@ -8257,12 +8353,20 @@
       </c>
       <c r="X69" s="28"/>
       <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
+      <c r="Z69" s="28">
+        <v>4</v>
+      </c>
       <c r="AA69" s="28"/>
       <c r="AB69" s="28"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
-      <c r="AE69" s="28"/>
+      <c r="AC69" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF69" s="28"/>
       <c r="AG69" s="28"/>
       <c r="AH69" s="28"/>
@@ -8295,20 +8399,26 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H70" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J70" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K70" s="28"/>
-      <c r="L70" s="10" t="s">
-        <v>232</v>
+      <c r="K70" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L70" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="M70" s="28"/>
       <c r="N70" s="28">
@@ -8318,16 +8428,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q70" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S70" s="28" t="s">
-        <v>236</v>
       </c>
       <c r="T70" s="28"/>
       <c r="U70" s="28"/>
@@ -8337,12 +8444,20 @@
       </c>
       <c r="X70" s="28"/>
       <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
+      <c r="Z70" s="28">
+        <v>4</v>
+      </c>
       <c r="AA70" s="28"/>
       <c r="AB70" s="28"/>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
-      <c r="AE70" s="28"/>
+      <c r="AC70" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF70" s="28"/>
       <c r="AG70" s="28"/>
       <c r="AH70" s="28"/>
@@ -8375,20 +8490,26 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H71" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J71" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K71" s="28"/>
-      <c r="L71" s="10" t="s">
-        <v>232</v>
+      <c r="K71" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="M71" s="28"/>
       <c r="N71" s="28">
@@ -8398,16 +8519,13 @@
         <v>0</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q71" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S71" s="28" t="s">
-        <v>238</v>
       </c>
       <c r="T71" s="28"/>
       <c r="U71" s="28"/>
@@ -8417,12 +8535,20 @@
       </c>
       <c r="X71" s="28"/>
       <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
+      <c r="Z71" s="28">
+        <v>4</v>
+      </c>
       <c r="AA71" s="28"/>
       <c r="AB71" s="28"/>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="28"/>
-      <c r="AE71" s="28"/>
+      <c r="AC71" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="AF71" s="28"/>
       <c r="AG71" s="28"/>
       <c r="AH71" s="28"/>
@@ -8455,20 +8581,26 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I72" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J72" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K72" s="28"/>
-      <c r="L72" s="10" t="s">
-        <v>232</v>
+      <c r="K72" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="N72" s="28">
         <v>1</v>
@@ -8477,19 +8609,28 @@
         <v>0</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q72" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S72" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="W72" s="28">
         <v>30000</v>
+      </c>
+      <c r="Z72" s="28">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:43" ht="16">
@@ -8509,20 +8650,26 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H73" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I73" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J73" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K73" s="28"/>
-      <c r="L73" s="10" t="s">
-        <v>232</v>
+      <c r="K73" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="N73" s="28">
         <v>1</v>
@@ -8531,19 +8678,28 @@
         <v>0</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q73" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S73" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="W73" s="28">
         <v>30000</v>
+      </c>
+      <c r="Z73" s="28">
+        <v>4</v>
+      </c>
+      <c r="AC73" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:43" ht="16">
@@ -8562,19 +8718,25 @@
       <c r="E74" s="1">
         <v>12</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H74" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J74" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K74" s="28"/>
-      <c r="L74" s="10" t="s">
+      <c r="K74" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L74" s="28" t="s">
         <v>232</v>
       </c>
       <c r="N74" s="28">
@@ -8584,19 +8746,28 @@
         <v>0</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q74" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S74" s="28" t="s">
-        <v>234</v>
-      </c>
       <c r="W74" s="28">
         <v>60000</v>
+      </c>
+      <c r="Z74" s="41">
+        <v>7</v>
+      </c>
+      <c r="AC74" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:43" ht="16">
@@ -8615,20 +8786,26 @@
       <c r="E75" s="1">
         <v>13</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H75" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I75" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J75" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K75" s="28"/>
-      <c r="L75" s="10" t="s">
-        <v>232</v>
+      <c r="K75" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L75" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="N75" s="28">
         <v>1</v>
@@ -8637,19 +8814,28 @@
         <v>0</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Q75" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S75" s="28" t="s">
-        <v>236</v>
-      </c>
       <c r="W75" s="28">
         <v>60000</v>
+      </c>
+      <c r="Z75" s="41">
+        <v>7</v>
+      </c>
+      <c r="AC75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:43" ht="16">
@@ -8668,20 +8854,26 @@
       <c r="E76" s="1">
         <v>14</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I76" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I76" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J76" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K76" s="28"/>
-      <c r="L76" s="10" t="s">
-        <v>232</v>
+      <c r="K76" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L76" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="N76" s="28">
         <v>1</v>
@@ -8690,19 +8882,28 @@
         <v>0</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Q76" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S76" s="28" t="s">
-        <v>238</v>
-      </c>
       <c r="W76" s="28">
         <v>60000</v>
+      </c>
+      <c r="Z76" s="41">
+        <v>7</v>
+      </c>
+      <c r="AC76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="16">
@@ -8721,20 +8922,26 @@
       <c r="E77" s="1">
         <v>15</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I77" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I77" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J77" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K77" s="28"/>
-      <c r="L77" s="10" t="s">
-        <v>232</v>
+      <c r="K77" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="N77" s="28">
         <v>1</v>
@@ -8743,19 +8950,28 @@
         <v>0</v>
       </c>
       <c r="P77" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q77" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S77" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="W77" s="28">
         <v>60000</v>
+      </c>
+      <c r="Z77" s="41">
+        <v>7</v>
+      </c>
+      <c r="AC77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:43" ht="16">
@@ -8774,20 +8990,26 @@
       <c r="E78" s="1">
         <v>16</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H78" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I78" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J78" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K78" s="28"/>
-      <c r="L78" s="10" t="s">
-        <v>232</v>
+      <c r="K78" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="N78" s="28">
         <v>1</v>
@@ -8796,19 +9018,28 @@
         <v>0</v>
       </c>
       <c r="P78" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q78" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S78" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="W78" s="28">
         <v>60000</v>
+      </c>
+      <c r="Z78" s="41">
+        <v>7</v>
+      </c>
+      <c r="AC78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:43" ht="16">
@@ -8827,19 +9058,25 @@
       <c r="E79" s="1">
         <v>17</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H79" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I79" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J79" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K79" s="28"/>
-      <c r="L79" s="10" t="s">
+      <c r="K79" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L79" s="28" t="s">
         <v>232</v>
       </c>
       <c r="N79" s="28">
@@ -8849,19 +9086,28 @@
         <v>0</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q79" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S79" s="28" t="s">
-        <v>234</v>
-      </c>
       <c r="W79" s="28">
         <v>20000</v>
+      </c>
+      <c r="Z79" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:43" ht="16">
@@ -8880,20 +9126,26 @@
       <c r="E80" s="1">
         <v>18</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H80" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I80" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I80" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J80" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K80" s="28"/>
-      <c r="L80" s="10" t="s">
-        <v>232</v>
+      <c r="K80" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L80" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="N80" s="28">
         <v>1</v>
@@ -8902,19 +9154,28 @@
         <v>0</v>
       </c>
       <c r="P80" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q80" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S80" s="28" t="s">
-        <v>236</v>
-      </c>
       <c r="W80" s="28">
         <v>20000</v>
+      </c>
+      <c r="Z80" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:45" ht="16">
@@ -8933,20 +9194,26 @@
       <c r="E81" s="1">
         <v>19</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H81" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I81" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J81" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K81" s="28"/>
-      <c r="L81" s="10" t="s">
-        <v>232</v>
+      <c r="K81" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L81" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="N81" s="28">
         <v>1</v>
@@ -8955,19 +9222,28 @@
         <v>0</v>
       </c>
       <c r="P81" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q81" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S81" s="28" t="s">
-        <v>238</v>
-      </c>
       <c r="W81" s="28">
         <v>20000</v>
+      </c>
+      <c r="Z81" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:45" ht="16">
@@ -8986,20 +9262,26 @@
       <c r="E82" s="1">
         <v>20</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H82" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J82" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K82" s="28"/>
-      <c r="L82" s="10" t="s">
-        <v>232</v>
+      <c r="K82" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="N82" s="28">
         <v>1</v>
@@ -9008,19 +9290,28 @@
         <v>0</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q82" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S82" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="W82" s="28">
         <v>20000</v>
+      </c>
+      <c r="Z82" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC82" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:45" ht="16">
@@ -9039,20 +9330,26 @@
       <c r="E83" s="1">
         <v>21</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H83" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I83" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J83" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K83" s="28"/>
-      <c r="L83" s="10" t="s">
-        <v>232</v>
+      <c r="K83" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="N83" s="28">
         <v>1</v>
@@ -9061,19 +9358,28 @@
         <v>0</v>
       </c>
       <c r="P83" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q83" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S83" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="W83" s="28">
         <v>20000</v>
+      </c>
+      <c r="Z83" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:45" ht="16">
@@ -9092,19 +9398,25 @@
       <c r="E84" s="1">
         <v>22</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H84" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I84" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I84" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J84" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K84" s="28"/>
-      <c r="L84" s="10" t="s">
+      <c r="K84" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L84" s="28" t="s">
         <v>232</v>
       </c>
       <c r="N84" s="28">
@@ -9114,19 +9426,28 @@
         <v>0</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q84" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S84" s="28" t="s">
-        <v>234</v>
-      </c>
       <c r="W84" s="28">
         <v>40000</v>
+      </c>
+      <c r="Z84" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC84" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:45" ht="16">
@@ -9145,20 +9466,26 @@
       <c r="E85" s="1">
         <v>23</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H85" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I85" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I85" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J85" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K85" s="28"/>
-      <c r="L85" s="10" t="s">
-        <v>232</v>
+      <c r="K85" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L85" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="N85" s="28">
         <v>1</v>
@@ -9167,19 +9494,28 @@
         <v>0</v>
       </c>
       <c r="P85" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q85" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S85" s="28" t="s">
-        <v>236</v>
-      </c>
       <c r="W85" s="28">
         <v>40000</v>
+      </c>
+      <c r="Z85" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC85" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:45" ht="16">
@@ -9198,20 +9534,26 @@
       <c r="E86" s="1">
         <v>24</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H86" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I86" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I86" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J86" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K86" s="28"/>
-      <c r="L86" s="10" t="s">
-        <v>232</v>
+      <c r="K86" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L86" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="N86" s="28">
         <v>1</v>
@@ -9220,19 +9562,28 @@
         <v>0</v>
       </c>
       <c r="P86" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q86" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S86" s="28" t="s">
-        <v>238</v>
-      </c>
       <c r="W86" s="28">
         <v>40000</v>
+      </c>
+      <c r="Z86" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC86" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:45" ht="16">
@@ -9251,20 +9602,26 @@
       <c r="E87" s="1">
         <v>25</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="H87" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I87" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I87" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J87" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K87" s="28"/>
-      <c r="L87" s="10" t="s">
-        <v>232</v>
+      <c r="K87" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="N87" s="28">
         <v>1</v>
@@ -9273,19 +9630,28 @@
         <v>0</v>
       </c>
       <c r="P87" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q87" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S87" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="W87" s="28">
         <v>40000</v>
+      </c>
+      <c r="Z87" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC87" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="40" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:45" ht="16">
@@ -9304,20 +9670,26 @@
       <c r="E88" s="1">
         <v>26</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G88" s="37" t="s">
+        <v>646</v>
+      </c>
       <c r="H88" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I88" s="30" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="I88" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="J88" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K88" s="28"/>
-      <c r="L88" s="10" t="s">
-        <v>232</v>
+      <c r="K88" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="N88" s="28">
         <v>1</v>
@@ -9326,27 +9698,36 @@
         <v>0</v>
       </c>
       <c r="P88" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q88" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S88" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="W88" s="28">
         <v>40000</v>
       </c>
+      <c r="Z88" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC88" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="40" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="89" spans="1:45" ht="16">
       <c r="A89" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C89" s="30">
         <f t="shared" si="3"/>
@@ -9363,7 +9744,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I89" s="30" t="s">
         <v>44</v>
@@ -9373,7 +9754,7 @@
       </c>
       <c r="K89" s="28"/>
       <c r="L89" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M89" s="28"/>
       <c r="N89" s="30">
@@ -9383,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q89" s="28">
         <v>1</v>
@@ -9419,10 +9800,10 @@
     </row>
     <row r="90" spans="1:45" ht="16">
       <c r="A90" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C90" s="30">
         <f t="shared" si="3"/>
@@ -9439,7 +9820,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I90" s="30" t="s">
         <v>160</v>
@@ -9449,7 +9830,7 @@
       </c>
       <c r="K90" s="28"/>
       <c r="L90" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M90" s="28"/>
       <c r="N90" s="30">
@@ -9459,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q90" s="28">
         <v>1</v>
@@ -9495,10 +9876,10 @@
     </row>
     <row r="91" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A91" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91" s="30">
         <f t="shared" si="3"/>
@@ -9515,7 +9896,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I91" s="30" t="s">
         <v>50</v>
@@ -9525,7 +9906,7 @@
       </c>
       <c r="K91" s="28"/>
       <c r="L91" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M91" s="28"/>
       <c r="N91" s="30">
@@ -9535,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q91" s="28">
         <v>1</v>
@@ -9544,7 +9925,7 @@
         <v>53</v>
       </c>
       <c r="S91" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="T91" s="28"/>
       <c r="U91" s="28"/>
@@ -9575,10 +9956,10 @@
     </row>
     <row r="92" spans="1:45" ht="16">
       <c r="A92" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C92" s="30">
         <f t="shared" si="3"/>
@@ -9595,7 +9976,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I92" s="30" t="s">
         <v>50</v>
@@ -9605,7 +9986,7 @@
       </c>
       <c r="K92" s="28"/>
       <c r="L92" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M92" s="28"/>
       <c r="N92" s="30">
@@ -9615,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q92" s="28">
         <v>1</v>
@@ -9624,7 +10005,7 @@
         <v>53</v>
       </c>
       <c r="S92" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T92" s="28"/>
       <c r="U92" s="28"/>
@@ -9653,10 +10034,10 @@
     </row>
     <row r="93" spans="1:45" ht="16">
       <c r="A93" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C93" s="30">
         <f t="shared" si="3"/>
@@ -9673,7 +10054,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I93" s="30" t="s">
         <v>50</v>
@@ -9683,7 +10064,7 @@
       </c>
       <c r="K93" s="28"/>
       <c r="L93" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M93" s="28"/>
       <c r="N93" s="30">
@@ -9693,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q93" s="28">
         <v>1</v>
@@ -9702,7 +10083,7 @@
         <v>53</v>
       </c>
       <c r="S93" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T93" s="28"/>
       <c r="U93" s="28"/>
@@ -9731,10 +10112,10 @@
     </row>
     <row r="94" spans="1:45" ht="16">
       <c r="A94" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C94" s="30">
         <f t="shared" si="3"/>
@@ -9751,7 +10132,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I94" s="30" t="s">
         <v>50</v>
@@ -9761,7 +10142,7 @@
       </c>
       <c r="K94" s="28"/>
       <c r="L94" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M94" s="28"/>
       <c r="N94" s="30">
@@ -9771,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q94" s="28">
         <v>1</v>
@@ -9780,7 +10161,7 @@
         <v>53</v>
       </c>
       <c r="S94" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T94" s="28"/>
       <c r="U94" s="28"/>
@@ -9809,10 +10190,10 @@
     </row>
     <row r="95" spans="1:45" ht="16">
       <c r="A95" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C95" s="30">
         <f t="shared" si="3"/>
@@ -9829,7 +10210,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I95" s="30" t="s">
         <v>50</v>
@@ -9839,7 +10220,7 @@
       </c>
       <c r="K95" s="28"/>
       <c r="L95" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M95" s="28"/>
       <c r="N95" s="30">
@@ -9849,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q95" s="28">
         <v>1</v>
@@ -9858,7 +10239,7 @@
         <v>53</v>
       </c>
       <c r="S95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T95" s="28"/>
       <c r="U95" s="28"/>
@@ -9887,10 +10268,10 @@
     </row>
     <row r="96" spans="1:45" ht="16">
       <c r="A96" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C96" s="30">
         <f t="shared" si="3"/>
@@ -9907,17 +10288,17 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I96" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M96" s="19"/>
       <c r="N96" s="30">
@@ -9927,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q96" s="28">
         <v>1</v>
@@ -9963,10 +10344,10 @@
     </row>
     <row r="97" spans="1:45" ht="16">
       <c r="A97" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C97" s="30">
         <f t="shared" si="3"/>
@@ -9983,17 +10364,17 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I97" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J97" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K97" s="30"/>
       <c r="L97" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M97" s="19"/>
       <c r="N97" s="28">
@@ -10003,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q97" s="28">
         <v>1</v>
@@ -10039,10 +10420,10 @@
     </row>
     <row r="98" spans="1:45" ht="16">
       <c r="A98" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" s="30">
         <f t="shared" si="3"/>
@@ -10059,7 +10440,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I98" s="30" t="s">
         <v>50</v>
@@ -10069,7 +10450,7 @@
       </c>
       <c r="K98" s="28"/>
       <c r="L98" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M98" s="28"/>
       <c r="N98" s="28">
@@ -10079,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q98" s="28">
         <v>1</v>
@@ -10088,7 +10469,7 @@
         <v>60</v>
       </c>
       <c r="S98" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T98" s="28"/>
       <c r="U98" s="28"/>
@@ -10119,10 +10500,10 @@
     </row>
     <row r="99" spans="1:45" ht="16">
       <c r="A99" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C99" s="30">
         <f t="shared" si="3"/>
@@ -10139,7 +10520,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I99" s="30" t="s">
         <v>50</v>
@@ -10149,7 +10530,7 @@
       </c>
       <c r="K99" s="28"/>
       <c r="L99" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M99" s="28"/>
       <c r="N99" s="28">
@@ -10159,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q99" s="28">
         <v>1</v>
@@ -10168,7 +10549,7 @@
         <v>60</v>
       </c>
       <c r="S99" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T99" s="28"/>
       <c r="U99" s="28"/>
@@ -10199,10 +10580,10 @@
     </row>
     <row r="100" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A100" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C100" s="30">
         <f t="shared" si="3"/>
@@ -10219,7 +10600,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I100" s="30" t="s">
         <v>50</v>
@@ -10229,7 +10610,7 @@
       </c>
       <c r="K100" s="28"/>
       <c r="L100" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M100" s="28"/>
       <c r="N100" s="28">
@@ -10239,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q100" s="28">
         <v>1</v>
@@ -10248,7 +10629,7 @@
         <v>60</v>
       </c>
       <c r="S100" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T100" s="28"/>
       <c r="U100" s="28"/>
@@ -10279,10 +10660,10 @@
     </row>
     <row r="101" spans="1:45" ht="16">
       <c r="A101" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C101" s="30">
         <f t="shared" si="3"/>
@@ -10299,7 +10680,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I101" s="30" t="s">
         <v>50</v>
@@ -10309,7 +10690,7 @@
       </c>
       <c r="K101" s="28"/>
       <c r="L101" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M101" s="28"/>
       <c r="N101" s="28">
@@ -10319,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q101" s="28">
         <v>1</v>
@@ -10328,7 +10709,7 @@
         <v>60</v>
       </c>
       <c r="S101" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T101" s="28"/>
       <c r="U101" s="28"/>
@@ -10356,10 +10737,10 @@
     </row>
     <row r="102" spans="1:45" ht="16">
       <c r="A102" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C102" s="30">
         <f t="shared" si="3"/>
@@ -10376,7 +10757,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I102" s="30" t="s">
         <v>50</v>
@@ -10386,7 +10767,7 @@
       </c>
       <c r="K102" s="28"/>
       <c r="L102" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M102" s="28"/>
       <c r="N102" s="28">
@@ -10396,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q102" s="28">
         <v>1</v>
@@ -10405,7 +10786,7 @@
         <v>60</v>
       </c>
       <c r="S102" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="T102" s="28"/>
       <c r="U102" s="28"/>
@@ -10434,10 +10815,10 @@
     </row>
     <row r="103" spans="1:45" ht="16">
       <c r="A103" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C103" s="30">
         <f t="shared" si="3"/>
@@ -10454,7 +10835,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I103" s="30" t="s">
         <v>50</v>
@@ -10464,7 +10845,7 @@
       </c>
       <c r="K103" s="28"/>
       <c r="L103" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M103" s="28"/>
       <c r="N103" s="28">
@@ -10474,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q103" s="28">
         <v>1</v>
@@ -10483,7 +10864,7 @@
         <v>60</v>
       </c>
       <c r="S103" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="T103" s="28"/>
       <c r="U103" s="28"/>
@@ -10512,10 +10893,10 @@
     </row>
     <row r="104" spans="1:45" ht="16">
       <c r="A104" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C104" s="30">
         <f t="shared" si="3"/>
@@ -10532,7 +10913,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I104" s="30" t="s">
         <v>50</v>
@@ -10542,7 +10923,7 @@
       </c>
       <c r="K104" s="28"/>
       <c r="L104" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N104" s="9">
         <v>0</v>
@@ -10551,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q104" s="7">
         <v>1</v>
@@ -10560,15 +10941,15 @@
         <v>60</v>
       </c>
       <c r="S104" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:45" ht="16">
       <c r="A105" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C105" s="30">
         <f t="shared" si="3"/>
@@ -10585,17 +10966,17 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I105" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J105" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K105" s="28"/>
       <c r="L105" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M105" s="28"/>
       <c r="N105" s="30">
@@ -10605,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="P105" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q105" s="28">
+        <v>1</v>
+      </c>
+      <c r="R105" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="S105" s="28" t="s">
         <v>300</v>
-      </c>
-      <c r="Q105" s="28">
-        <v>1</v>
-      </c>
-      <c r="R105" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="S105" s="28" t="s">
-        <v>302</v>
       </c>
       <c r="T105" s="28"/>
       <c r="U105" s="28"/>
@@ -10645,10 +11026,10 @@
     </row>
     <row r="106" spans="1:45" ht="16">
       <c r="A106" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C106" s="30">
         <f t="shared" si="3"/>
@@ -10665,17 +11046,17 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I106" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J106" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K106" s="28"/>
       <c r="L106" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M106" s="28"/>
       <c r="N106" s="30">
@@ -10685,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q106" s="28">
         <v>1</v>
       </c>
       <c r="R106" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S106" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T106" s="28"/>
       <c r="U106" s="28"/>
@@ -10725,10 +11106,10 @@
     </row>
     <row r="107" spans="1:45" ht="16">
       <c r="A107" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C107" s="30">
         <f t="shared" si="3"/>
@@ -10745,17 +11126,17 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I107" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K107" s="28"/>
       <c r="L107" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M107" s="28"/>
       <c r="N107" s="30">
@@ -10765,16 +11146,16 @@
         <v>0</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q107" s="28">
         <v>1</v>
       </c>
       <c r="R107" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S107" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T107" s="28"/>
       <c r="U107" s="28"/>
@@ -10805,10 +11186,10 @@
     </row>
     <row r="108" spans="1:45" ht="16">
       <c r="A108" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C108" s="30">
         <f t="shared" si="3"/>
@@ -10825,17 +11206,17 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I108" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J108" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K108" s="28"/>
       <c r="L108" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M108" s="28"/>
       <c r="N108" s="30">
@@ -10845,16 +11226,16 @@
         <v>0</v>
       </c>
       <c r="P108" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q108" s="28">
         <v>1</v>
       </c>
       <c r="R108" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S108" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T108" s="28"/>
       <c r="U108" s="28"/>
@@ -10885,10 +11266,10 @@
     </row>
     <row r="109" spans="1:45" ht="16">
       <c r="A109" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C109" s="30">
         <f t="shared" si="3"/>
@@ -10905,17 +11286,17 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I109" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J109" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K109" s="28"/>
       <c r="L109" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M109" s="28"/>
       <c r="N109" s="30">
@@ -10925,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="P109" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q109" s="28">
         <v>1</v>
       </c>
       <c r="R109" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S109" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T109" s="28"/>
       <c r="U109" s="28"/>
@@ -10965,10 +11346,10 @@
     </row>
     <row r="110" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A110" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C110" s="30">
         <f t="shared" si="3"/>
@@ -10985,17 +11366,17 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I110" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J110" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K110" s="28"/>
       <c r="L110" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M110" s="28"/>
       <c r="N110" s="30">
@@ -11005,16 +11386,16 @@
         <v>0</v>
       </c>
       <c r="P110" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q110" s="28">
         <v>1</v>
       </c>
       <c r="R110" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S110" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T110" s="28"/>
       <c r="U110" s="28"/>
@@ -11045,10 +11426,10 @@
     </row>
     <row r="111" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A111" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C111" s="30">
         <f t="shared" si="3"/>
@@ -11065,17 +11446,17 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I111" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J111" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K111" s="28"/>
       <c r="L111" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M111" s="28"/>
       <c r="N111" s="30">
@@ -11085,13 +11466,13 @@
         <v>0</v>
       </c>
       <c r="P111" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q111" s="28">
         <v>1</v>
       </c>
       <c r="R111" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S111" s="28"/>
       <c r="T111" s="28"/>
@@ -11121,10 +11502,10 @@
     </row>
     <row r="112" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A112" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C112" s="30">
         <f t="shared" si="3"/>
@@ -11141,17 +11522,17 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I112" s="30" t="s">
         <v>160</v>
       </c>
       <c r="J112" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K112" s="28"/>
       <c r="L112" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M112" s="28"/>
       <c r="N112" s="30">
@@ -11161,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="P112" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q112" s="28">
         <v>1</v>
@@ -11197,10 +11578,10 @@
     </row>
     <row r="113" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A113" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C113" s="30">
         <f t="shared" si="3"/>
@@ -11217,17 +11598,17 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I113" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K113" s="28"/>
       <c r="L113" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M113" s="28"/>
       <c r="N113" s="30">
@@ -11237,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="P113" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q113" s="28">
         <v>1</v>
@@ -11275,10 +11656,10 @@
     </row>
     <row r="114" spans="1:45" ht="16">
       <c r="A114" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C114" s="30">
         <f t="shared" si="3"/>
@@ -11295,17 +11676,17 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I114" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K114" s="13"/>
       <c r="L114" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M114" s="22"/>
       <c r="N114" s="30">
@@ -11315,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="P114" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q114" s="28">
         <v>1</v>
@@ -11351,10 +11732,10 @@
     </row>
     <row r="115" spans="1:45" ht="16">
       <c r="A115" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C115" s="30">
         <f t="shared" si="3"/>
@@ -11371,17 +11752,17 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I115" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K115" s="13"/>
       <c r="L115" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M115" s="22"/>
       <c r="N115" s="30">
@@ -11391,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="P115" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q115" s="28">
         <v>1</v>
@@ -11427,10 +11808,10 @@
     </row>
     <row r="116" spans="1:45" ht="16">
       <c r="A116" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C116" s="30">
         <f t="shared" si="3"/>
@@ -11447,7 +11828,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I116" s="30" t="s">
         <v>44</v>
@@ -11457,7 +11838,7 @@
       </c>
       <c r="K116" s="28"/>
       <c r="L116" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M116" s="28"/>
       <c r="N116" s="30">
@@ -11467,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="P116" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q116" s="28">
         <v>1</v>
@@ -11476,7 +11857,7 @@
         <v>53</v>
       </c>
       <c r="S116" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T116" s="28"/>
       <c r="U116" s="28"/>
@@ -11505,10 +11886,10 @@
     </row>
     <row r="117" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A117" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C117" s="30">
         <f t="shared" si="3"/>
@@ -11525,7 +11906,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I117" s="30" t="s">
         <v>44</v>
@@ -11535,7 +11916,7 @@
       </c>
       <c r="K117" s="28"/>
       <c r="L117" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M117" s="28"/>
       <c r="N117" s="30">
@@ -11545,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="P117" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q117" s="28">
         <v>1</v>
@@ -11554,7 +11935,7 @@
         <v>60</v>
       </c>
       <c r="S117" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T117" s="28"/>
       <c r="U117" s="28"/>
@@ -11583,10 +11964,10 @@
     </row>
     <row r="118" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A118" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C118" s="30">
         <f t="shared" si="3"/>
@@ -11603,7 +11984,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I118" s="30" t="s">
         <v>44</v>
@@ -11613,7 +11994,7 @@
       </c>
       <c r="K118" s="28"/>
       <c r="L118" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M118" s="28"/>
       <c r="N118" s="30">
@@ -11623,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q118" s="28">
         <v>1</v>
@@ -11632,7 +12013,7 @@
         <v>60</v>
       </c>
       <c r="S118" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T118" s="28"/>
       <c r="U118" s="28"/>
@@ -11661,10 +12042,10 @@
     </row>
     <row r="119" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A119" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C119" s="30">
         <f t="shared" si="3"/>
@@ -11681,7 +12062,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I119" s="30" t="s">
         <v>44</v>
@@ -11691,7 +12072,7 @@
       </c>
       <c r="K119" s="28"/>
       <c r="L119" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M119" s="28"/>
       <c r="N119" s="30">
@@ -11701,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q119" s="28">
         <v>1</v>
@@ -11710,7 +12091,7 @@
         <v>60</v>
       </c>
       <c r="S119" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="T119" s="28"/>
       <c r="U119" s="28"/>
@@ -11739,10 +12120,10 @@
     </row>
     <row r="120" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A120" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C120" s="30">
         <f t="shared" si="3"/>
@@ -11759,7 +12140,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I120" s="30" t="s">
         <v>44</v>
@@ -11769,7 +12150,7 @@
       </c>
       <c r="K120" s="28"/>
       <c r="L120" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M120" s="28"/>
       <c r="N120" s="30">
@@ -11779,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q120" s="28">
         <v>1</v>
@@ -11788,7 +12169,7 @@
         <v>60</v>
       </c>
       <c r="S120" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T120" s="28"/>
       <c r="U120" s="28"/>
@@ -11817,10 +12198,10 @@
     </row>
     <row r="121" spans="1:45" ht="16">
       <c r="A121" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C121" s="30">
         <f t="shared" si="3"/>
@@ -11837,17 +12218,17 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I121" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J121" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K121" s="28"/>
       <c r="L121" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M121" s="28"/>
       <c r="N121" s="30">
@@ -11857,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q121" s="28">
         <v>1</v>
@@ -11866,7 +12247,7 @@
         <v>60</v>
       </c>
       <c r="S121" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="T121" s="28"/>
       <c r="U121" s="28"/>
@@ -11895,10 +12276,10 @@
     </row>
     <row r="122" spans="1:45" ht="16">
       <c r="A122" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C122" s="30">
         <f t="shared" si="3"/>
@@ -11915,17 +12296,17 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I122" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J122" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K122" s="28"/>
       <c r="L122" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N122" s="30">
         <v>1</v>
@@ -11934,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="P122" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q122" s="28">
         <v>1</v>
@@ -11943,15 +12324,15 @@
         <v>60</v>
       </c>
       <c r="S122" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:45" ht="16">
       <c r="A123" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C123" s="30">
         <f t="shared" si="3"/>
@@ -11968,17 +12349,17 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I123" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J123" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K123" s="28"/>
       <c r="L123" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M123" s="28"/>
       <c r="N123" s="30">
@@ -11988,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="P123" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q123" s="28">
         <v>1</v>
@@ -11997,7 +12378,7 @@
         <v>60</v>
       </c>
       <c r="S123" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T123" s="28"/>
       <c r="U123" s="28"/>
@@ -12026,10 +12407,10 @@
     </row>
     <row r="124" spans="1:45" ht="16">
       <c r="A124" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C124" s="30">
         <f t="shared" si="3"/>
@@ -12046,17 +12427,17 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I124" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J124" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K124" s="28"/>
       <c r="L124" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M124" s="28"/>
       <c r="N124" s="30">
@@ -12066,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="P124" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q124" s="28">
         <v>1</v>
@@ -12075,7 +12456,7 @@
         <v>60</v>
       </c>
       <c r="S124" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="T124" s="28"/>
       <c r="U124" s="28"/>
@@ -12104,10 +12485,10 @@
     </row>
     <row r="125" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A125" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C125" s="30">
         <f t="shared" si="3"/>
@@ -12124,17 +12505,17 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I125" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J125" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K125" s="28"/>
       <c r="L125" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M125" s="28"/>
       <c r="N125" s="30">
@@ -12144,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="P125" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q125" s="28">
         <v>1</v>
@@ -12153,7 +12534,7 @@
         <v>60</v>
       </c>
       <c r="S125" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T125" s="28"/>
       <c r="U125" s="28"/>
@@ -12182,10 +12563,10 @@
     </row>
     <row r="126" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A126" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C126" s="30">
         <f t="shared" si="3"/>
@@ -12202,17 +12583,17 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K126" s="13"/>
       <c r="L126" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M126" s="28"/>
       <c r="N126" s="30">
@@ -12222,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q126" s="28">
         <v>1</v>
@@ -12258,10 +12639,10 @@
     </row>
     <row r="127" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A127" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C127" s="30">
         <f t="shared" si="3"/>
@@ -12278,7 +12659,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I127" s="30" t="s">
         <v>44</v>
@@ -12288,7 +12669,7 @@
       </c>
       <c r="K127" s="28"/>
       <c r="L127" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M127" s="30"/>
       <c r="N127" s="30">
@@ -12298,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="P127" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q127" s="28">
         <v>1</v>
@@ -12334,10 +12715,10 @@
     </row>
     <row r="128" spans="1:45" s="7" customFormat="1" ht="16">
       <c r="A128" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C128" s="30">
         <f t="shared" si="3"/>
@@ -12354,7 +12735,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I128" s="30" t="s">
         <v>50</v>
@@ -12364,7 +12745,7 @@
       </c>
       <c r="K128" s="28"/>
       <c r="L128" s="30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M128" s="30"/>
       <c r="N128" s="30">
@@ -12374,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="P128" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q128" s="28">
         <v>1</v>
@@ -12383,7 +12764,7 @@
         <v>60</v>
       </c>
       <c r="S128" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="T128" s="28"/>
       <c r="U128" s="28"/>
@@ -12412,10 +12793,10 @@
     </row>
     <row r="129" spans="1:45" ht="16">
       <c r="A129" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C129" s="30">
         <f t="shared" si="3"/>
@@ -12432,17 +12813,17 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I129" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M129" s="28"/>
       <c r="N129" s="30">
@@ -12452,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q129" s="28">
         <v>1</v>
@@ -12461,7 +12842,7 @@
         <v>60</v>
       </c>
       <c r="S129" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="T129" s="28"/>
       <c r="U129" s="28"/>
@@ -12490,10 +12871,10 @@
     </row>
     <row r="130" spans="1:45" ht="16">
       <c r="A130" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C130" s="30">
         <f t="shared" si="3"/>
@@ -12510,17 +12891,17 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I130" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K130" s="11"/>
       <c r="L130" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M130" s="28"/>
       <c r="N130" s="30">
@@ -12530,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="P130" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q130" s="28">
         <v>1</v>
@@ -12539,7 +12920,7 @@
         <v>60</v>
       </c>
       <c r="S130" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T130" s="28"/>
       <c r="U130" s="28"/>
@@ -12568,10 +12949,10 @@
     </row>
     <row r="131" spans="1:45" ht="16">
       <c r="A131" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C131" s="30">
         <f t="shared" si="3"/>
@@ -12588,17 +12969,17 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I131" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M131" s="28"/>
       <c r="N131" s="30">
@@ -12608,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="P131" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q131" s="28">
         <v>1</v>
@@ -12617,7 +12998,7 @@
         <v>60</v>
       </c>
       <c r="S131" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T131" s="28"/>
       <c r="U131" s="28"/>
@@ -12646,10 +13027,10 @@
     </row>
     <row r="132" spans="1:45" ht="16">
       <c r="A132" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C132" s="30">
         <f t="shared" si="3"/>
@@ -12666,17 +13047,17 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I132" s="30" t="s">
         <v>50</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M132" s="28"/>
       <c r="N132" s="30">
@@ -12686,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="P132" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q132" s="28">
         <v>1</v>
@@ -12695,7 +13076,7 @@
         <v>60</v>
       </c>
       <c r="S132" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="T132" s="28"/>
       <c r="U132" s="28"/>
@@ -12724,10 +13105,10 @@
     </row>
     <row r="133" spans="1:45" ht="16">
       <c r="A133" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C133" s="30">
         <f t="shared" si="3"/>
@@ -12744,7 +13125,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I133" s="30" t="s">
         <v>44</v>
@@ -12754,7 +13135,7 @@
       </c>
       <c r="K133" s="28"/>
       <c r="L133" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M133" s="28"/>
       <c r="N133" s="30">
@@ -12764,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="P133" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q133" s="28">
         <v>1</v>
@@ -12773,7 +13154,7 @@
         <v>53</v>
       </c>
       <c r="S133" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T133" s="28"/>
       <c r="U133" s="28"/>
@@ -12784,10 +13165,10 @@
     </row>
     <row r="134" spans="1:45" ht="16">
       <c r="A134" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C134" s="30">
         <f t="shared" si="3"/>
@@ -12804,7 +13185,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I134" s="30" t="s">
         <v>44</v>
@@ -12814,7 +13195,7 @@
       </c>
       <c r="K134" s="28"/>
       <c r="L134" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M134" s="28"/>
       <c r="N134" s="30">
@@ -12824,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="P134" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q134" s="28">
         <v>1</v>
@@ -12833,7 +13214,7 @@
         <v>53</v>
       </c>
       <c r="S134" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T134" s="28"/>
       <c r="U134" s="28"/>
@@ -12844,10 +13225,10 @@
     </row>
     <row r="135" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A135" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C135" s="30">
         <f t="shared" si="3"/>
@@ -12864,7 +13245,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I135" s="30" t="s">
         <v>44</v>
@@ -12874,7 +13255,7 @@
       </c>
       <c r="K135" s="28"/>
       <c r="L135" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M135" s="28"/>
       <c r="N135" s="30">
@@ -12884,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="P135" s="28" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q135" s="28">
         <v>1</v>
@@ -12893,7 +13274,7 @@
         <v>53</v>
       </c>
       <c r="S135" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T135" s="28"/>
       <c r="U135" s="28"/>
@@ -12926,10 +13307,10 @@
     </row>
     <row r="136" spans="1:45" ht="16">
       <c r="A136" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C136" s="30">
         <f t="shared" si="3"/>
@@ -12946,7 +13327,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I136" s="30" t="s">
         <v>44</v>
@@ -12956,7 +13337,7 @@
       </c>
       <c r="K136" s="28"/>
       <c r="L136" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M136" s="28"/>
       <c r="N136" s="30">
@@ -12966,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="P136" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q136" s="28">
         <v>1</v>
@@ -12975,7 +13356,7 @@
         <v>53</v>
       </c>
       <c r="S136" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T136" s="28"/>
       <c r="U136" s="28"/>
@@ -12986,10 +13367,10 @@
     </row>
     <row r="137" spans="1:45" ht="16">
       <c r="A137" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C137" s="30">
         <f t="shared" si="3"/>
@@ -13006,7 +13387,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I137" s="30" t="s">
         <v>44</v>
@@ -13016,7 +13397,7 @@
       </c>
       <c r="K137" s="28"/>
       <c r="L137" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M137" s="28"/>
       <c r="N137" s="30">
@@ -13026,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q137" s="28">
         <v>1</v>
@@ -13035,7 +13416,7 @@
         <v>53</v>
       </c>
       <c r="S137" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T137" s="28"/>
       <c r="U137" s="28"/>
@@ -13066,10 +13447,10 @@
     </row>
     <row r="138" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A138" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C138" s="30">
         <f t="shared" si="3"/>
@@ -13086,7 +13467,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I138" s="30" t="s">
         <v>44</v>
@@ -13096,7 +13477,7 @@
       </c>
       <c r="K138" s="28"/>
       <c r="L138" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M138" s="28"/>
       <c r="N138" s="30">
@@ -13106,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q138" s="28">
         <v>1</v>
@@ -13115,7 +13496,7 @@
         <v>53</v>
       </c>
       <c r="S138" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T138" s="28"/>
       <c r="U138" s="28"/>
@@ -13148,10 +13529,10 @@
     </row>
     <row r="139" spans="1:45" ht="16">
       <c r="A139" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C139" s="30">
         <f t="shared" si="3"/>
@@ -13168,7 +13549,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I139" s="30" t="s">
         <v>44</v>
@@ -13178,7 +13559,7 @@
       </c>
       <c r="K139" s="28"/>
       <c r="L139" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M139" s="28"/>
       <c r="N139" s="30">
@@ -13188,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="P139" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q139" s="28">
         <v>1</v>
@@ -13197,7 +13578,7 @@
         <v>53</v>
       </c>
       <c r="S139" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T139" s="28"/>
       <c r="U139" s="28"/>
@@ -13228,10 +13609,10 @@
     </row>
     <row r="140" spans="1:45" ht="16">
       <c r="A140" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C140" s="30">
         <f t="shared" si="3"/>
@@ -13248,7 +13629,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I140" s="30" t="s">
         <v>44</v>
@@ -13258,7 +13639,7 @@
       </c>
       <c r="K140" s="28"/>
       <c r="L140" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M140" s="28"/>
       <c r="N140" s="30">
@@ -13268,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="P140" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q140" s="28">
         <v>1</v>
@@ -13277,7 +13658,7 @@
         <v>53</v>
       </c>
       <c r="S140" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T140" s="28"/>
       <c r="U140" s="28"/>
@@ -13308,10 +13689,10 @@
     </row>
     <row r="141" spans="1:45" ht="16">
       <c r="A141" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C141" s="30">
         <f t="shared" si="3"/>
@@ -13328,7 +13709,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I141" s="30" t="s">
         <v>44</v>
@@ -13338,7 +13719,7 @@
       </c>
       <c r="K141" s="28"/>
       <c r="L141" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M141" s="28"/>
       <c r="N141" s="30">
@@ -13348,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q141" s="28">
         <v>1</v>
@@ -13357,7 +13738,7 @@
         <v>60</v>
       </c>
       <c r="S141" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T141" s="28"/>
       <c r="U141" s="28"/>
@@ -13388,10 +13769,10 @@
     </row>
     <row r="142" spans="1:45" ht="16">
       <c r="A142" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C142" s="30">
         <f t="shared" si="3"/>
@@ -13408,7 +13789,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I142" s="30" t="s">
         <v>44</v>
@@ -13418,7 +13799,7 @@
       </c>
       <c r="K142" s="28"/>
       <c r="L142" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M142" s="28"/>
       <c r="N142" s="30">
@@ -13428,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q142" s="28">
         <v>1</v>
@@ -13437,7 +13818,7 @@
         <v>60</v>
       </c>
       <c r="S142" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T142" s="28"/>
       <c r="U142" s="28"/>
@@ -13468,10 +13849,10 @@
     </row>
     <row r="143" spans="1:45" ht="16">
       <c r="A143" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C143" s="30">
         <f t="shared" si="3"/>
@@ -13488,7 +13869,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I143" s="30" t="s">
         <v>44</v>
@@ -13498,7 +13879,7 @@
       </c>
       <c r="K143" s="28"/>
       <c r="L143" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M143" s="28"/>
       <c r="N143" s="30">
@@ -13508,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q143" s="28">
         <v>1</v>
@@ -13517,7 +13898,7 @@
         <v>60</v>
       </c>
       <c r="S143" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T143" s="28"/>
       <c r="U143" s="28"/>
@@ -13548,10 +13929,10 @@
     </row>
     <row r="144" spans="1:45" ht="16">
       <c r="A144" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" si="3"/>
@@ -13568,7 +13949,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I144" s="30" t="s">
         <v>44</v>
@@ -13578,7 +13959,7 @@
       </c>
       <c r="K144" s="28"/>
       <c r="L144" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M144" s="28"/>
       <c r="N144" s="30">
@@ -13588,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q144" s="28">
         <v>1</v>
@@ -13597,7 +13978,7 @@
         <v>60</v>
       </c>
       <c r="S144" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T144" s="28"/>
       <c r="U144" s="28"/>
@@ -13628,10 +14009,10 @@
     </row>
     <row r="145" spans="1:45" ht="16">
       <c r="A145" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C145" s="30">
         <f t="shared" si="3"/>
@@ -13648,7 +14029,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I145" s="30" t="s">
         <v>44</v>
@@ -13658,7 +14039,7 @@
       </c>
       <c r="K145" s="28"/>
       <c r="L145" s="28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M145" s="19"/>
       <c r="N145" s="30">
@@ -13668,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="P145" s="28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q145" s="28">
         <v>1</v>
@@ -13677,7 +14058,7 @@
         <v>60</v>
       </c>
       <c r="S145" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T145" s="28"/>
       <c r="U145" s="28"/>
@@ -13708,10 +14089,10 @@
     </row>
     <row r="146" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A146" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C146" s="30">
         <f t="shared" ref="C146:C209" si="6">_xlfn.NUMBERVALUE(LEFT(P146,2))</f>
@@ -13728,7 +14109,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I146" s="30" t="s">
         <v>44</v>
@@ -13738,7 +14119,7 @@
       </c>
       <c r="K146" s="28"/>
       <c r="L146" s="28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M146" s="19"/>
       <c r="N146" s="30">
@@ -13748,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="P146" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q146" s="28">
         <v>1</v>
@@ -13757,7 +14138,7 @@
         <v>60</v>
       </c>
       <c r="S146" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T146" s="28"/>
       <c r="U146" s="28"/>
@@ -13790,10 +14171,10 @@
     </row>
     <row r="147" spans="1:45" ht="16">
       <c r="A147" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C147" s="30">
         <f t="shared" si="6"/>
@@ -13810,7 +14191,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I147" s="30" t="s">
         <v>44</v>
@@ -13820,7 +14201,7 @@
       </c>
       <c r="K147" s="28"/>
       <c r="L147" s="28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M147" s="28"/>
       <c r="N147" s="30">
@@ -13830,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="P147" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q147" s="28">
         <v>1</v>
@@ -13839,7 +14220,7 @@
         <v>60</v>
       </c>
       <c r="S147" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T147" s="28"/>
       <c r="U147" s="28"/>
@@ -13870,10 +14251,10 @@
     </row>
     <row r="148" spans="1:45" ht="16">
       <c r="A148" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C148" s="30">
         <f t="shared" si="6"/>
@@ -13890,7 +14271,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I148" s="30" t="s">
         <v>44</v>
@@ -13900,7 +14281,7 @@
       </c>
       <c r="K148" s="28"/>
       <c r="L148" s="28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M148" s="28"/>
       <c r="N148" s="30">
@@ -13910,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="P148" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q148" s="28">
         <v>1</v>
@@ -13919,7 +14300,7 @@
         <v>60</v>
       </c>
       <c r="S148" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T148" s="28"/>
       <c r="U148" s="28"/>
@@ -13950,10 +14331,10 @@
     </row>
     <row r="149" spans="1:45" ht="16">
       <c r="A149" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C149" s="30">
         <f t="shared" si="6"/>
@@ -13970,13 +14351,13 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I149" s="30"/>
       <c r="J149" s="28"/>
       <c r="K149" s="28"/>
       <c r="L149" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M149" s="28"/>
       <c r="N149" s="30">
@@ -13986,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q149" s="28">
         <v>1</v>
@@ -14022,10 +14403,10 @@
     </row>
     <row r="150" spans="1:45" ht="16">
       <c r="A150" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C150" s="30">
         <f t="shared" si="6"/>
@@ -14042,7 +14423,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I150" s="30" t="s">
         <v>44</v>
@@ -14050,7 +14431,7 @@
       <c r="J150" s="28"/>
       <c r="K150" s="28"/>
       <c r="L150" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M150" s="28"/>
       <c r="N150" s="30">
@@ -14060,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="P150" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q150" s="28">
         <v>1</v>
@@ -14096,10 +14477,10 @@
     </row>
     <row r="151" spans="1:45" ht="16">
       <c r="A151" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C151" s="30">
         <f t="shared" si="6"/>
@@ -14116,13 +14497,13 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I151" s="30"/>
       <c r="J151" s="28"/>
       <c r="K151" s="28"/>
       <c r="L151" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M151" s="28"/>
       <c r="N151" s="30">
@@ -14130,7 +14511,7 @@
       </c>
       <c r="O151" s="30"/>
       <c r="P151" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q151" s="28">
         <v>1</v>
@@ -14166,10 +14547,10 @@
     </row>
     <row r="152" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A152" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C152" s="30">
         <f t="shared" si="6"/>
@@ -14186,17 +14567,17 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I152" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K152" s="11"/>
       <c r="L152" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M152" s="32"/>
       <c r="N152" s="30">
@@ -14206,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q152" s="28">
         <v>1</v>
@@ -14215,7 +14596,7 @@
         <v>60</v>
       </c>
       <c r="S152" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="T152" s="28"/>
       <c r="U152" s="28"/>
@@ -14248,10 +14629,10 @@
     </row>
     <row r="153" spans="1:45" ht="16">
       <c r="A153" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C153" s="30">
         <f t="shared" si="6"/>
@@ -14268,17 +14649,17 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I153" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M153" s="32"/>
       <c r="N153" s="30">
@@ -14288,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="P153" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q153" s="28">
         <v>1</v>
@@ -14297,7 +14678,7 @@
         <v>60</v>
       </c>
       <c r="S153" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T153" s="28"/>
       <c r="U153" s="28"/>
@@ -14328,10 +14709,10 @@
     </row>
     <row r="154" spans="1:45" ht="16">
       <c r="A154" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C154" s="30">
         <f t="shared" si="6"/>
@@ -14348,17 +14729,17 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I154" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K154" s="11"/>
       <c r="L154" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M154" s="32"/>
       <c r="N154" s="30">
@@ -14368,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="P154" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q154" s="28">
         <v>1</v>
@@ -14377,7 +14758,7 @@
         <v>60</v>
       </c>
       <c r="S154" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T154" s="28"/>
       <c r="U154" s="28"/>
@@ -14408,10 +14789,10 @@
     </row>
     <row r="155" spans="1:45" ht="16">
       <c r="A155" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C155" s="30">
         <f t="shared" si="6"/>
@@ -14428,17 +14809,17 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I155" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M155" s="32"/>
       <c r="N155" s="30">
@@ -14448,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="P155" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q155" s="28">
         <v>1</v>
@@ -14457,7 +14838,7 @@
         <v>60</v>
       </c>
       <c r="S155" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T155" s="28"/>
       <c r="U155" s="28"/>
@@ -14488,10 +14869,10 @@
     </row>
     <row r="156" spans="1:45" ht="16">
       <c r="A156" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C156" s="30">
         <f t="shared" si="6"/>
@@ -14508,17 +14889,17 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I156" s="30" t="s">
         <v>44</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M156" s="32"/>
       <c r="N156" s="30">
@@ -14528,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="P156" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q156" s="28">
         <v>1</v>
@@ -14564,10 +14945,10 @@
     </row>
     <row r="157" spans="1:45" ht="16">
       <c r="A157" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C157" s="30">
         <f t="shared" si="6"/>
@@ -14584,17 +14965,17 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I157" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M157" s="28"/>
       <c r="N157" s="30">
@@ -14604,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q157" s="28">
         <v>1</v>
@@ -14640,10 +15021,10 @@
     </row>
     <row r="158" spans="1:45" ht="16">
       <c r="A158" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C158" s="30">
         <f t="shared" si="6"/>
@@ -14660,17 +15041,17 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I158" s="30" t="s">
         <v>56</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M158" s="28"/>
       <c r="N158" s="28">
@@ -14680,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="P158" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q158" s="28">
         <v>1</v>
@@ -14716,10 +15097,10 @@
     </row>
     <row r="159" spans="1:45" ht="16">
       <c r="A159" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C159" s="30">
         <f t="shared" si="6"/>
@@ -14736,17 +15117,17 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I159" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M159" s="11"/>
       <c r="N159" s="28">
@@ -14756,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="P159" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q159" s="28">
         <v>1</v>
@@ -14792,10 +15173,10 @@
     </row>
     <row r="160" spans="1:45" ht="16">
       <c r="A160" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C160" s="30">
         <f t="shared" si="6"/>
@@ -14812,29 +15193,29 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J160" s="28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K160" s="28"/>
       <c r="L160" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="M160" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="N160" s="28">
+        <v>0</v>
+      </c>
+      <c r="O160" s="28">
+        <v>0</v>
+      </c>
+      <c r="P160" s="28" t="s">
         <v>427</v>
-      </c>
-      <c r="M160" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="N160" s="28">
-        <v>0</v>
-      </c>
-      <c r="O160" s="28">
-        <v>0</v>
-      </c>
-      <c r="P160" s="28" t="s">
-        <v>429</v>
       </c>
       <c r="Q160" s="28">
         <v>1</v>
@@ -14870,10 +15251,10 @@
     </row>
     <row r="161" spans="1:45" ht="16">
       <c r="A161" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C161" s="30">
         <f t="shared" si="6"/>
@@ -14890,17 +15271,17 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J161" s="28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K161" s="28"/>
       <c r="L161" s="30" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M161" s="28"/>
       <c r="N161" s="28">
@@ -14910,13 +15291,13 @@
         <v>0</v>
       </c>
       <c r="P161" s="28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q161" s="28">
         <v>1</v>
       </c>
       <c r="R161" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S161" s="28"/>
       <c r="T161" s="28"/>
@@ -14946,10 +15327,10 @@
     </row>
     <row r="162" spans="1:45" ht="16">
       <c r="A162" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C162" s="30">
         <f t="shared" si="6"/>
@@ -14966,17 +15347,17 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K162" s="28"/>
       <c r="L162" s="30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M162" s="28"/>
       <c r="N162" s="28">
@@ -14986,13 +15367,13 @@
         <v>0</v>
       </c>
       <c r="P162" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q162" s="28">
         <v>1</v>
       </c>
       <c r="R162" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S162" s="28"/>
       <c r="T162" s="28"/>
@@ -15022,10 +15403,10 @@
     </row>
     <row r="163" spans="1:45" ht="16">
       <c r="A163" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C163" s="30">
         <f t="shared" si="6"/>
@@ -15042,17 +15423,17 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>147</v>
       </c>
       <c r="J163" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K163" s="28"/>
       <c r="L163" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M163" s="28"/>
       <c r="N163" s="28">
@@ -15062,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="P163" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q163" s="28">
         <v>1</v>
@@ -15098,10 +15479,10 @@
     </row>
     <row r="164" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A164" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C164" s="30">
         <f t="shared" si="6"/>
@@ -15118,17 +15499,17 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I164" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J164" s="28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K164" s="28"/>
       <c r="L164" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M164" s="28"/>
       <c r="N164" s="28">
@@ -15138,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="P164" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q164" s="28">
         <v>1</v>
@@ -15176,10 +15557,10 @@
     </row>
     <row r="165" spans="1:45" ht="16">
       <c r="A165" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C165" s="30">
         <f t="shared" si="6"/>
@@ -15196,17 +15577,17 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I165" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J165" s="28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K165" s="28"/>
       <c r="L165" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M165" s="28"/>
       <c r="N165" s="28">
@@ -15216,7 +15597,7 @@
         <v>0</v>
       </c>
       <c r="P165" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q165" s="28">
         <v>1</v>
@@ -15252,10 +15633,10 @@
     </row>
     <row r="166" spans="1:45" ht="16">
       <c r="A166" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C166" s="30">
         <f t="shared" si="6"/>
@@ -15272,7 +15653,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I166" s="28" t="s">
         <v>160</v>
@@ -15280,7 +15661,7 @@
       <c r="J166" s="28"/>
       <c r="K166" s="28"/>
       <c r="L166" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M166" s="28"/>
       <c r="N166" s="28">
@@ -15290,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="P166" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q166" s="28">
         <v>1</v>
@@ -15326,10 +15707,10 @@
     </row>
     <row r="167" spans="1:45" ht="16">
       <c r="A167" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C167" s="30">
         <f t="shared" si="6"/>
@@ -15346,13 +15727,13 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I167" s="30" t="s">
         <v>160</v>
       </c>
       <c r="L167" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N167" s="30">
         <v>0</v>
@@ -15361,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Q167" s="28">
         <v>1</v>
@@ -15372,10 +15753,10 @@
     </row>
     <row r="168" spans="1:45" ht="16">
       <c r="A168" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C168" s="30">
         <f t="shared" si="6"/>
@@ -15392,17 +15773,17 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I168" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J168" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K168" s="28"/>
       <c r="L168" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M168" s="28"/>
       <c r="N168" s="28">
@@ -15412,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="P168" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q168" s="28">
         <v>1</v>
@@ -15448,10 +15829,10 @@
     </row>
     <row r="169" spans="1:45" ht="16">
       <c r="A169" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C169" s="30">
         <f t="shared" si="6"/>
@@ -15468,17 +15849,17 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I169" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K169" s="11"/>
       <c r="L169" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M169" s="23"/>
       <c r="N169" s="28">
@@ -15488,7 +15869,7 @@
         <v>0</v>
       </c>
       <c r="P169" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q169" s="28">
         <v>1</v>
@@ -15524,10 +15905,10 @@
     </row>
     <row r="170" spans="1:45" ht="16">
       <c r="A170" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C170" s="30">
         <f t="shared" si="6"/>
@@ -15544,17 +15925,17 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I170" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J170" s="28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K170" s="28"/>
       <c r="L170" s="28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M170" s="24"/>
       <c r="N170" s="28">
@@ -15564,13 +15945,13 @@
         <v>0</v>
       </c>
       <c r="P170" s="28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q170" s="28">
         <v>1</v>
       </c>
       <c r="R170" s="28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S170" s="28"/>
       <c r="T170" s="28"/>
@@ -15600,10 +15981,10 @@
     </row>
     <row r="171" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A171" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C171" s="30">
         <f t="shared" si="6"/>
@@ -15620,17 +16001,17 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I171" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J171" s="28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K171" s="28"/>
       <c r="L171" s="23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M171" s="19"/>
       <c r="N171" s="28">
@@ -15640,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="P171" s="28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q171" s="28">
         <v>1</v>
@@ -15678,10 +16059,10 @@
     </row>
     <row r="172" spans="1:45" ht="16">
       <c r="A172" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C172" s="30">
         <f t="shared" si="6"/>
@@ -15698,7 +16079,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>50</v>
@@ -15708,7 +16089,7 @@
       </c>
       <c r="K172" s="28"/>
       <c r="L172" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M172" s="28"/>
       <c r="N172" s="28">
@@ -15718,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="P172" s="28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q172" s="28">
         <v>1</v>
@@ -15754,10 +16135,10 @@
     </row>
     <row r="173" spans="1:45" ht="16">
       <c r="A173" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C173" s="30">
         <f t="shared" si="6"/>
@@ -15774,7 +16155,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>50</v>
@@ -15784,7 +16165,7 @@
       </c>
       <c r="K173" s="28"/>
       <c r="L173" s="28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M173" s="28"/>
       <c r="N173" s="28">
@@ -15794,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="P173" s="28" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q173" s="28">
         <v>1</v>
@@ -15830,10 +16211,10 @@
     </row>
     <row r="174" spans="1:45" ht="16">
       <c r="A174" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C174" s="30">
         <f t="shared" si="6"/>
@@ -15850,7 +16231,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I174" s="30" t="s">
         <v>44</v>
@@ -15860,7 +16241,7 @@
       </c>
       <c r="K174" s="28"/>
       <c r="L174" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N174" s="30">
         <v>0</v>
@@ -15869,7 +16250,7 @@
         <v>1</v>
       </c>
       <c r="P174" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q174" s="28">
         <v>1</v>
@@ -15878,15 +16259,15 @@
         <v>53</v>
       </c>
       <c r="S174" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:45" ht="16">
       <c r="A175" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C175" s="30">
         <f t="shared" si="6"/>
@@ -15903,7 +16284,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I175" s="30" t="s">
         <v>147</v>
@@ -15913,7 +16294,7 @@
       </c>
       <c r="K175" s="28"/>
       <c r="L175" s="28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M175" s="28"/>
       <c r="N175" s="30">
@@ -15923,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="P175" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q175" s="28">
         <v>1</v>
@@ -15959,10 +16340,10 @@
     </row>
     <row r="176" spans="1:45" ht="16">
       <c r="A176" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C176" s="30">
         <f t="shared" si="6"/>
@@ -15979,17 +16360,17 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I176" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J176" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K176" s="28"/>
       <c r="L176" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M176" s="28"/>
       <c r="N176" s="30">
@@ -15997,7 +16378,7 @@
       </c>
       <c r="O176" s="30"/>
       <c r="P176" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Q176" s="28">
         <v>1</v>
@@ -16006,7 +16387,7 @@
         <v>60</v>
       </c>
       <c r="S176" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T176" s="28"/>
       <c r="U176" s="28"/>
@@ -16037,10 +16418,10 @@
     </row>
     <row r="177" spans="1:45" ht="16">
       <c r="A177" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C177" s="30">
         <f t="shared" si="6"/>
@@ -16057,17 +16438,17 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I177" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J177" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K177" s="28"/>
       <c r="L177" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M177" s="28"/>
       <c r="N177" s="30">
@@ -16075,7 +16456,7 @@
       </c>
       <c r="O177" s="30"/>
       <c r="P177" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Q177" s="28">
         <v>1</v>
@@ -16084,7 +16465,7 @@
         <v>60</v>
       </c>
       <c r="S177" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T177" s="28"/>
       <c r="U177" s="28"/>
@@ -16115,10 +16496,10 @@
     </row>
     <row r="178" spans="1:45" ht="16">
       <c r="A178" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C178" s="30">
         <f t="shared" si="6"/>
@@ -16135,17 +16516,17 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I178" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J178" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K178" s="28"/>
       <c r="L178" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M178" s="28"/>
       <c r="N178" s="30">
@@ -16153,7 +16534,7 @@
       </c>
       <c r="O178" s="30"/>
       <c r="P178" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q178" s="28">
         <v>1</v>
@@ -16162,7 +16543,7 @@
         <v>60</v>
       </c>
       <c r="S178" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T178" s="28"/>
       <c r="U178" s="28"/>
@@ -16193,10 +16574,10 @@
     </row>
     <row r="179" spans="1:45" ht="16">
       <c r="A179" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C179" s="30">
         <f t="shared" si="6"/>
@@ -16213,17 +16594,17 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J179" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K179" s="28"/>
       <c r="L179" s="30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M179" s="30"/>
       <c r="N179" s="30">
@@ -16233,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="P179" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q179" s="28">
         <v>1</v>
@@ -16242,7 +16623,7 @@
         <v>60</v>
       </c>
       <c r="S179" s="28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="T179" s="28"/>
       <c r="U179" s="28"/>
@@ -16271,10 +16652,10 @@
     </row>
     <row r="180" spans="1:45" s="5" customFormat="1" ht="16">
       <c r="A180" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C180" s="30">
         <f t="shared" si="6"/>
@@ -16291,17 +16672,17 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K180" s="12"/>
       <c r="L180" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M180" s="1"/>
       <c r="N180" s="1">
@@ -16311,13 +16692,13 @@
         <v>0</v>
       </c>
       <c r="P180" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q180" s="28">
         <v>1</v>
       </c>
       <c r="R180" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S180" s="28"/>
       <c r="T180" s="28"/>
@@ -16349,10 +16730,10 @@
     </row>
     <row r="181" spans="1:45" ht="16">
       <c r="A181" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C181" s="30">
         <f t="shared" si="6"/>
@@ -16369,21 +16750,21 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K181" s="11"/>
       <c r="L181" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q181" s="28">
         <v>1</v>
@@ -16419,10 +16800,10 @@
     </row>
     <row r="182" spans="1:45" ht="16">
       <c r="A182" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C182" s="30">
         <f t="shared" si="6"/>
@@ -16439,7 +16820,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>147</v>
@@ -16449,7 +16830,7 @@
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M182" s="28"/>
       <c r="N182" s="1">
@@ -16459,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q182" s="28">
         <v>1</v>
@@ -16495,10 +16876,10 @@
     </row>
     <row r="183" spans="1:45" ht="16">
       <c r="A183" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C183" s="30">
         <f t="shared" si="6"/>
@@ -16515,17 +16896,17 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J183" s="28" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K183" s="28"/>
       <c r="L183" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M183" s="19"/>
       <c r="N183" s="1">
@@ -16535,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="P183" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q183" s="28">
         <v>1</v>
@@ -16571,10 +16952,10 @@
     </row>
     <row r="184" spans="1:45" ht="16">
       <c r="A184" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C184" s="30">
         <f t="shared" si="6"/>
@@ -16591,7 +16972,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>44</v>
@@ -16601,13 +16982,13 @@
       </c>
       <c r="K184" s="28"/>
       <c r="L184" s="28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M184" s="19"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
       <c r="P184" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q184" s="28">
         <v>1</v>
@@ -16644,10 +17025,10 @@
     </row>
     <row r="185" spans="1:45" ht="16">
       <c r="A185" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C185" s="30">
         <f t="shared" si="6"/>
@@ -16664,7 +17045,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>44</v>
@@ -16674,13 +17055,13 @@
       </c>
       <c r="K185" s="28"/>
       <c r="L185" s="28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M185" s="19"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q185" s="28">
         <v>1</v>
@@ -16717,10 +17098,10 @@
     </row>
     <row r="186" spans="1:45" ht="16">
       <c r="A186" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C186" s="30">
         <f t="shared" si="6"/>
@@ -16737,7 +17118,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>44</v>
@@ -16747,7 +17128,7 @@
       </c>
       <c r="K186" s="28"/>
       <c r="L186" s="28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M186" s="28"/>
       <c r="N186" s="1">
@@ -16757,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Q186" s="28">
         <v>1</v>
@@ -16794,10 +17175,10 @@
     </row>
     <row r="187" spans="1:45" ht="16">
       <c r="A187" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C187" s="30">
         <f t="shared" si="6"/>
@@ -16814,17 +17195,17 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K187" s="28"/>
       <c r="L187" s="28" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M187" s="28"/>
       <c r="N187" s="1">
@@ -16834,7 +17215,7 @@
         <v>0</v>
       </c>
       <c r="P187" s="28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q187" s="28">
         <v>1</v>
@@ -16870,10 +17251,10 @@
     </row>
     <row r="188" spans="1:45" ht="16">
       <c r="A188" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C188" s="30">
         <f t="shared" si="6"/>
@@ -16890,7 +17271,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>50</v>
@@ -16900,7 +17281,7 @@
       </c>
       <c r="K188" s="28"/>
       <c r="L188" s="28" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M188" s="28"/>
       <c r="N188" s="1">
@@ -16910,7 +17291,7 @@
         <v>0</v>
       </c>
       <c r="P188" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q188" s="28">
         <v>1</v>
@@ -16946,10 +17327,10 @@
     </row>
     <row r="189" spans="1:45" ht="16">
       <c r="A189" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C189" s="30">
         <f t="shared" si="6"/>
@@ -16966,7 +17347,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>50</v>
@@ -16976,7 +17357,7 @@
       </c>
       <c r="K189" s="28"/>
       <c r="L189" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M189" s="28"/>
       <c r="N189" s="1">
@@ -16986,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="P189" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q189" s="28">
         <v>1</v>
@@ -17022,10 +17403,10 @@
     </row>
     <row r="190" spans="1:45" ht="16">
       <c r="A190" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C190" s="30">
         <f t="shared" si="6"/>
@@ -17042,17 +17423,17 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K190" s="28"/>
       <c r="L190" s="28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M190" s="32"/>
       <c r="N190" s="1">
@@ -17062,7 +17443,7 @@
         <v>0</v>
       </c>
       <c r="P190" s="28" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q190" s="28">
         <v>1</v>
@@ -17098,10 +17479,10 @@
     </row>
     <row r="191" spans="1:45" ht="16">
       <c r="A191" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C191" s="30">
         <f t="shared" si="6"/>
@@ -17118,17 +17499,17 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K191" s="28"/>
       <c r="L191" s="28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M191" s="32"/>
       <c r="N191" s="1">
@@ -17138,7 +17519,7 @@
         <v>0</v>
       </c>
       <c r="P191" s="28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q191" s="28">
         <v>1</v>
@@ -17174,10 +17555,10 @@
     </row>
     <row r="192" spans="1:45" ht="16">
       <c r="A192" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C192" s="30">
         <f t="shared" si="6"/>
@@ -17194,7 +17575,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>50</v>
@@ -17204,7 +17585,7 @@
       </c>
       <c r="K192" s="28"/>
       <c r="L192" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M192" s="28"/>
       <c r="N192" s="1">
@@ -17214,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="P192" s="28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q192" s="28">
         <v>1</v>
@@ -17250,10 +17631,10 @@
     </row>
     <row r="193" spans="1:45" ht="16">
       <c r="A193" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C193" s="30">
         <f t="shared" si="6"/>
@@ -17270,17 +17651,17 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K193" s="28"/>
       <c r="L193" s="30" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M193" s="28"/>
       <c r="N193" s="28">
@@ -17290,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="P193" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q193" s="28">
         <v>1</v>
@@ -17326,10 +17707,10 @@
     </row>
     <row r="194" spans="1:45" s="4" customFormat="1" ht="16">
       <c r="A194" s="30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C194" s="30">
         <f t="shared" si="6"/>
@@ -17346,17 +17727,17 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I194" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M194" s="28"/>
       <c r="N194" s="28">
@@ -17366,7 +17747,7 @@
         <v>0</v>
       </c>
       <c r="P194" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q194" s="28">
         <v>1</v>
@@ -17404,10 +17785,10 @@
     </row>
     <row r="195" spans="1:45" ht="16">
       <c r="A195" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C195" s="30">
         <f t="shared" si="6"/>
@@ -17424,17 +17805,17 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K195" s="28"/>
       <c r="L195" s="28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M195" s="28"/>
       <c r="N195" s="1">
@@ -17444,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="P195" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q195" s="28">
         <v>1</v>
@@ -17480,10 +17861,10 @@
     </row>
     <row r="196" spans="1:45" ht="16">
       <c r="A196" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C196" s="30">
         <f t="shared" si="6"/>
@@ -17500,17 +17881,17 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K196" s="28"/>
       <c r="L196" s="28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M196" s="28"/>
       <c r="N196" s="1">
@@ -17520,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="P196" s="28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q196" s="28">
         <v>1</v>
@@ -17556,10 +17937,10 @@
     </row>
     <row r="197" spans="1:45" ht="16">
       <c r="A197" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C197" s="30">
         <f t="shared" si="6"/>
@@ -17576,17 +17957,17 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K197" s="28"/>
       <c r="L197" s="30" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M197" s="28"/>
       <c r="N197" s="1">
@@ -17596,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Q197" s="28">
         <v>1</v>
@@ -17632,10 +18013,10 @@
     </row>
     <row r="198" spans="1:45" ht="16">
       <c r="A198" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C198" s="30">
         <f t="shared" si="6"/>
@@ -17652,17 +18033,17 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I198" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K198" s="28"/>
       <c r="L198" s="28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M198" s="32"/>
       <c r="N198" s="1">
@@ -17672,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Q198" s="28">
         <v>1</v>
@@ -17708,10 +18089,10 @@
     </row>
     <row r="199" spans="1:45" ht="16">
       <c r="A199" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C199" s="30">
         <f t="shared" si="6"/>
@@ -17728,17 +18109,17 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K199" s="28"/>
       <c r="L199" s="28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M199" s="32"/>
       <c r="N199" s="1">
@@ -17748,7 +18129,7 @@
         <v>0</v>
       </c>
       <c r="P199" s="28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q199" s="28">
         <v>1</v>
@@ -17784,10 +18165,10 @@
     </row>
     <row r="200" spans="1:45" ht="16">
       <c r="A200" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C200" s="30">
         <f t="shared" si="6"/>
@@ -17804,17 +18185,17 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I200" s="28" t="s">
         <v>50</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K200" s="28"/>
       <c r="L200" s="32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M200" s="28"/>
       <c r="N200" s="1">
@@ -17824,7 +18205,7 @@
         <v>0</v>
       </c>
       <c r="P200" s="28" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q200" s="28">
         <v>1</v>
@@ -17860,10 +18241,10 @@
     </row>
     <row r="201" spans="1:45" ht="19">
       <c r="A201" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C201" s="30">
         <f t="shared" si="6"/>
@@ -17880,17 +18261,17 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I201" s="25" t="s">
         <v>88</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K201" s="28"/>
       <c r="L201" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M201" s="30"/>
       <c r="N201" s="1">
@@ -17900,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="P201" s="28" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Q201" s="28">
         <v>1</v>
@@ -17936,10 +18317,10 @@
     </row>
     <row r="202" spans="1:45" ht="16">
       <c r="A202" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C202" s="30">
         <f t="shared" si="6"/>
@@ -17956,17 +18337,17 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I202" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K202" s="28"/>
       <c r="L202" s="26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M202" s="26"/>
       <c r="N202" s="1">
@@ -17976,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="P202" s="28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q202" s="28">
         <v>1</v>
@@ -18012,10 +18393,10 @@
     </row>
     <row r="203" spans="1:45" ht="16">
       <c r="A203" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C203" s="30">
         <f t="shared" si="6"/>
@@ -18032,17 +18413,17 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I203" s="12" t="s">
         <v>50</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K203" s="28"/>
       <c r="L203" s="28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M203" s="28"/>
       <c r="N203" s="1">
@@ -18052,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="P203" s="28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q203" s="28">
         <v>1</v>
@@ -18088,10 +18469,10 @@
     </row>
     <row r="204" spans="1:45" ht="16">
       <c r="A204" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C204" s="30">
         <f t="shared" si="6"/>
@@ -18108,7 +18489,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>50</v>
@@ -18118,7 +18499,7 @@
       </c>
       <c r="K204" s="28"/>
       <c r="L204" s="28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M204" s="28"/>
       <c r="N204" s="1">
@@ -18128,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="P204" s="28" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Q204" s="28">
         <v>1</v>
@@ -18164,10 +18545,10 @@
     </row>
     <row r="205" spans="1:45" ht="16">
       <c r="A205" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C205" s="30">
         <f t="shared" si="6"/>
@@ -18184,7 +18565,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I205" s="12" t="s">
         <v>50</v>
@@ -18194,7 +18575,7 @@
       </c>
       <c r="K205" s="28"/>
       <c r="L205" s="28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M205" s="28"/>
       <c r="N205" s="1">
@@ -18204,7 +18585,7 @@
         <v>0</v>
       </c>
       <c r="P205" s="28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Q205" s="28">
         <v>1</v>
@@ -18240,10 +18621,10 @@
     </row>
     <row r="206" spans="1:45" ht="16">
       <c r="A206" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C206" s="30">
         <f t="shared" si="6"/>
@@ -18260,7 +18641,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I206" s="12" t="s">
         <v>50</v>
@@ -18270,7 +18651,7 @@
       </c>
       <c r="K206" s="28"/>
       <c r="L206" s="28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M206" s="28"/>
       <c r="N206" s="1">
@@ -18280,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="P206" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q206" s="28">
         <v>1</v>
@@ -18316,10 +18697,10 @@
     </row>
     <row r="207" spans="1:45" ht="16">
       <c r="A207" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C207" s="30">
         <f t="shared" si="6"/>
@@ -18336,7 +18717,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I207" s="12" t="s">
         <v>50</v>
@@ -18346,7 +18727,7 @@
       </c>
       <c r="K207" s="28"/>
       <c r="L207" s="28" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M207" s="28"/>
       <c r="N207" s="1">
@@ -18356,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="P207" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q207" s="28">
         <v>1</v>
@@ -18392,10 +18773,10 @@
     </row>
     <row r="208" spans="1:45" ht="16">
       <c r="A208" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C208" s="30">
         <f t="shared" si="6"/>
@@ -18412,7 +18793,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I208" s="12" t="s">
         <v>50</v>
@@ -18422,7 +18803,7 @@
       </c>
       <c r="K208" s="28"/>
       <c r="L208" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M208" s="28"/>
       <c r="N208" s="1">
@@ -18432,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="P208" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q208" s="28">
         <v>1</v>
@@ -18468,10 +18849,10 @@
     </row>
     <row r="209" spans="1:43" ht="16">
       <c r="A209" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C209" s="30">
         <f t="shared" si="6"/>
@@ -18488,7 +18869,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I209" s="12" t="s">
         <v>50</v>
@@ -18498,7 +18879,7 @@
       </c>
       <c r="K209" s="28"/>
       <c r="L209" s="28" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M209" s="28"/>
       <c r="N209" s="1">
@@ -18508,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="P209" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Q209" s="28">
         <v>1</v>
@@ -18544,10 +18925,10 @@
     </row>
     <row r="210" spans="1:43" ht="16">
       <c r="A210" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C210" s="30">
         <f t="shared" ref="C210:C236" si="9">_xlfn.NUMBERVALUE(LEFT(P210,2))</f>
@@ -18564,17 +18945,17 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K210" s="28"/>
       <c r="L210" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M210" s="28"/>
       <c r="N210" s="1">
@@ -18584,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="P210" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Q210" s="28">
         <v>1</v>
@@ -18620,10 +19001,10 @@
     </row>
     <row r="211" spans="1:43" ht="16">
       <c r="A211" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C211" s="30">
         <f t="shared" si="9"/>
@@ -18640,17 +19021,17 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K211" s="28"/>
       <c r="L211" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N211" s="1">
         <v>0</v>
@@ -18659,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="P211" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q211" s="30">
         <v>0</v>
@@ -18667,10 +19048,10 @@
     </row>
     <row r="212" spans="1:43" ht="16">
       <c r="A212" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C212" s="30">
         <f t="shared" si="9"/>
@@ -18687,17 +19068,17 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I212" s="12" t="s">
         <v>147</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K212" s="28"/>
       <c r="L212" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M212" s="19"/>
       <c r="N212" s="1">
@@ -18707,7 +19088,7 @@
         <v>0</v>
       </c>
       <c r="P212" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q212" s="28">
         <v>1</v>
@@ -18743,10 +19124,10 @@
     </row>
     <row r="213" spans="1:43" ht="16">
       <c r="A213" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C213" s="30">
         <f t="shared" si="9"/>
@@ -18763,17 +19144,17 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>160</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K213" s="28"/>
       <c r="L213" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M213" s="32"/>
       <c r="N213" s="1">
@@ -18783,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="P213" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q213" s="28">
         <v>1</v>
@@ -18819,10 +19200,10 @@
     </row>
     <row r="214" spans="1:43" ht="16">
       <c r="A214" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C214" s="30">
         <f t="shared" si="9"/>
@@ -18839,19 +19220,19 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I214" s="12"/>
       <c r="J214" s="28"/>
       <c r="K214" s="28"/>
       <c r="L214" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M214" s="32"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Q214" s="28">
         <v>0</v>
@@ -18885,10 +19266,10 @@
     </row>
     <row r="215" spans="1:43" ht="16">
       <c r="A215" s="30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C215" s="30">
         <f t="shared" si="9"/>
@@ -18905,19 +19286,19 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I215" s="12"/>
       <c r="J215" s="28"/>
       <c r="K215" s="28"/>
       <c r="L215" s="28" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M215" s="32"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Q215" s="28">
         <v>0</v>
@@ -18951,10 +19332,10 @@
     </row>
     <row r="216" spans="1:43" ht="16">
       <c r="A216" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C216" s="30">
         <f t="shared" si="9"/>
@@ -18971,17 +19352,17 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I216" s="28" t="s">
         <v>56</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K216" s="28"/>
       <c r="L216" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M216" s="28"/>
       <c r="N216" s="28">
@@ -18991,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="P216" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Q216" s="28">
         <v>1</v>
@@ -19027,10 +19408,10 @@
     </row>
     <row r="217" spans="1:43" ht="16">
       <c r="A217" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C217" s="30">
         <f t="shared" si="9"/>
@@ -19047,17 +19428,17 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J217" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K217" s="28"/>
       <c r="L217" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M217" s="30"/>
       <c r="N217" s="1">
@@ -19067,7 +19448,7 @@
         <v>0</v>
       </c>
       <c r="P217" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q217" s="28">
         <v>1</v>
@@ -19103,10 +19484,10 @@
     </row>
     <row r="218" spans="1:43" ht="16">
       <c r="A218" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B218" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C218" s="30">
         <f t="shared" si="9"/>
@@ -19123,17 +19504,17 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J218" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K218" s="28"/>
       <c r="L218" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M218" s="30"/>
       <c r="N218" s="1">
@@ -19143,7 +19524,7 @@
         <v>0</v>
       </c>
       <c r="P218" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="Q218" s="28">
         <v>0</v>
@@ -19177,10 +19558,10 @@
     </row>
     <row r="219" spans="1:43" ht="16">
       <c r="A219" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B219" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C219" s="30">
         <f t="shared" si="9"/>
@@ -19197,7 +19578,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>88</v>
@@ -19207,7 +19588,7 @@
       </c>
       <c r="K219" s="28"/>
       <c r="L219" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M219" s="30"/>
       <c r="N219" s="1">
@@ -19217,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="P219" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Q219" s="28">
         <v>1</v>
@@ -19253,10 +19634,10 @@
     </row>
     <row r="220" spans="1:43" ht="16">
       <c r="A220" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B220" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C220" s="30">
         <f t="shared" si="9"/>
@@ -19273,7 +19654,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I220" s="1" t="s">
         <v>147</v>
@@ -19283,7 +19664,7 @@
       </c>
       <c r="K220" s="28"/>
       <c r="L220" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M220" s="30"/>
       <c r="N220" s="1">
@@ -19293,7 +19674,7 @@
         <v>1</v>
       </c>
       <c r="P220" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Q220" s="28">
         <v>1</v>
@@ -19329,10 +19710,10 @@
     </row>
     <row r="221" spans="1:43" ht="16">
       <c r="A221" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B221" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C221" s="30">
         <f t="shared" si="9"/>
@@ -19349,17 +19730,17 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J221" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K221" s="28"/>
       <c r="L221" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M221" s="30"/>
       <c r="N221" s="1">
@@ -19369,7 +19750,7 @@
         <v>0</v>
       </c>
       <c r="P221" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Q221" s="28">
         <v>1</v>
@@ -19405,10 +19786,10 @@
     </row>
     <row r="222" spans="1:43" ht="16">
       <c r="A222" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C222" s="30">
         <f t="shared" si="9"/>
@@ -19425,17 +19806,17 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K222" s="28"/>
       <c r="L222" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M222" s="30"/>
       <c r="N222" s="1">
@@ -19445,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="P222" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Q222" s="28">
         <v>0</v>
@@ -19479,10 +19860,10 @@
     </row>
     <row r="223" spans="1:43" ht="16">
       <c r="A223" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C223" s="30">
         <f t="shared" si="9"/>
@@ -19499,7 +19880,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>88</v>
@@ -19509,7 +19890,7 @@
       </c>
       <c r="K223" s="28"/>
       <c r="L223" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M223" s="30"/>
       <c r="N223" s="1">
@@ -19519,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="P223" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Q223" s="28">
         <v>1</v>
@@ -19555,10 +19936,10 @@
     </row>
     <row r="224" spans="1:43" ht="16">
       <c r="A224" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C224" s="30">
         <f t="shared" si="9"/>
@@ -19575,7 +19956,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>147</v>
@@ -19585,7 +19966,7 @@
       </c>
       <c r="K224" s="28"/>
       <c r="L224" s="30" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M224" s="30"/>
       <c r="N224" s="1">
@@ -19595,7 +19976,7 @@
         <v>1</v>
       </c>
       <c r="P224" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Q224" s="28">
         <v>0</v>
@@ -19629,10 +20010,10 @@
     </row>
     <row r="225" spans="1:43" ht="16">
       <c r="A225" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C225" s="30">
         <f t="shared" si="9"/>
@@ -19649,7 +20030,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>160</v>
@@ -19659,7 +20040,7 @@
       </c>
       <c r="K225" s="28"/>
       <c r="L225" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M225" s="30"/>
       <c r="N225" s="1">
@@ -19669,7 +20050,7 @@
         <v>0</v>
       </c>
       <c r="P225" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Q225" s="28">
         <v>1</v>
@@ -19705,10 +20086,10 @@
     </row>
     <row r="226" spans="1:43" ht="16">
       <c r="A226" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C226" s="30">
         <f t="shared" si="9"/>
@@ -19725,17 +20106,17 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J226" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K226" s="28"/>
       <c r="L226" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M226" s="30"/>
       <c r="N226" s="1">
@@ -19745,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="P226" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q226" s="28">
         <v>0</v>
@@ -19779,10 +20160,10 @@
     </row>
     <row r="227" spans="1:43" ht="16">
       <c r="A227" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C227" s="30">
         <f t="shared" si="9"/>
@@ -19799,7 +20180,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>88</v>
@@ -19809,7 +20190,7 @@
       </c>
       <c r="K227" s="28"/>
       <c r="L227" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M227" s="30"/>
       <c r="N227" s="1">
@@ -19819,7 +20200,7 @@
         <v>1</v>
       </c>
       <c r="P227" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q227" s="28">
         <v>1</v>
@@ -19855,10 +20236,10 @@
     </row>
     <row r="228" spans="1:43" ht="16">
       <c r="A228" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B228" s="28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C228" s="30">
         <f t="shared" si="9"/>
@@ -19875,7 +20256,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I228" s="28" t="s">
         <v>147</v>
@@ -19885,7 +20266,7 @@
       </c>
       <c r="K228" s="28"/>
       <c r="L228" s="28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M228" s="30"/>
       <c r="N228" s="28">
@@ -19895,7 +20276,7 @@
         <v>1</v>
       </c>
       <c r="P228" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Q228" s="28">
         <v>1</v>
@@ -19931,10 +20312,10 @@
     </row>
     <row r="229" spans="1:43" ht="16">
       <c r="A229" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C229" s="30">
         <f t="shared" si="9"/>
@@ -19951,7 +20332,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>160</v>
@@ -19961,7 +20342,7 @@
       </c>
       <c r="K229" s="28"/>
       <c r="L229" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M229" s="30"/>
       <c r="N229" s="28">
@@ -19971,7 +20352,7 @@
         <v>0</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="Q229" s="28">
         <v>1</v>
@@ -20007,10 +20388,10 @@
     </row>
     <row r="230" spans="1:43" ht="16">
       <c r="A230" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C230" s="30">
         <f t="shared" si="9"/>
@@ -20027,17 +20408,17 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J230" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K230" s="28"/>
       <c r="L230" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M230" s="30"/>
       <c r="N230" s="28">
@@ -20047,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="P230" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Q230" s="28">
         <v>0</v>
@@ -20081,10 +20462,10 @@
     </row>
     <row r="231" spans="1:43" ht="16">
       <c r="A231" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C231" s="30">
         <f t="shared" si="9"/>
@@ -20101,7 +20482,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I231" s="28" t="s">
         <v>88</v>
@@ -20111,7 +20492,7 @@
       </c>
       <c r="K231" s="28"/>
       <c r="L231" s="28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M231" s="30"/>
       <c r="N231" s="28">
@@ -20121,7 +20502,7 @@
         <v>1</v>
       </c>
       <c r="P231" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q231" s="28">
         <v>1</v>
@@ -20157,10 +20538,10 @@
     </row>
     <row r="232" spans="1:43" ht="16">
       <c r="A232" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C232" s="30">
         <f t="shared" si="9"/>
@@ -20177,7 +20558,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>147</v>
@@ -20187,7 +20568,7 @@
       </c>
       <c r="K232" s="28"/>
       <c r="L232" s="28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M232" s="30"/>
       <c r="N232" s="28">
@@ -20197,7 +20578,7 @@
         <v>1</v>
       </c>
       <c r="P232" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Q232" s="28">
         <v>1</v>
@@ -20233,10 +20614,10 @@
     </row>
     <row r="233" spans="1:43" ht="16">
       <c r="A233" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C233" s="30">
         <f t="shared" si="9"/>
@@ -20253,7 +20634,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>160</v>
@@ -20263,7 +20644,7 @@
       </c>
       <c r="K233" s="28"/>
       <c r="L233" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M233" s="30"/>
       <c r="N233" s="28">
@@ -20273,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="P233" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Q233" s="28">
         <v>1</v>
@@ -20309,10 +20690,10 @@
     </row>
     <row r="234" spans="1:43" ht="16">
       <c r="A234" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C234" s="30">
         <f t="shared" si="9"/>
@@ -20329,17 +20710,17 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J234" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K234" s="28"/>
       <c r="L234" s="28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M234" s="28"/>
       <c r="N234" s="28">
@@ -20349,7 +20730,7 @@
         <v>0</v>
       </c>
       <c r="P234" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Q234" s="28">
         <v>0</v>
@@ -20383,10 +20764,10 @@
     </row>
     <row r="235" spans="1:43" ht="16">
       <c r="A235" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C235" s="30">
         <f t="shared" si="9"/>
@@ -20403,7 +20784,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I235" s="28" t="s">
         <v>88</v>
@@ -20413,7 +20794,7 @@
       </c>
       <c r="K235" s="28"/>
       <c r="L235" s="28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M235" s="28"/>
       <c r="N235" s="28">
@@ -20423,7 +20804,7 @@
         <v>1</v>
       </c>
       <c r="P235" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="Q235" s="28">
         <v>1</v>
@@ -20459,10 +20840,10 @@
     </row>
     <row r="236" spans="1:43" ht="16">
       <c r="A236" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C236" s="30">
         <f t="shared" si="9"/>
@@ -20479,7 +20860,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>147</v>
@@ -20489,7 +20870,7 @@
       </c>
       <c r="K236" s="28"/>
       <c r="L236" s="28" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M236" s="28"/>
       <c r="N236" s="28">
@@ -20499,7 +20880,7 @@
         <v>1</v>
       </c>
       <c r="P236" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q236" s="28">
         <v>1</v>
